--- a/db/nymvicdata.xlsx
+++ b/db/nymvicdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="895" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="279" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7887" uniqueCount="5488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="5489">
   <si>
     <t>email</t>
   </si>
@@ -13731,6 +13731,9 @@
   </si>
   <si>
     <t>Bilquis</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>Gouda</t>
@@ -16579,18 +16582,16 @@
   </sheetPr>
   <dimension ref="A1:C2743"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1870" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7570850202429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2145748987854"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="8.83400809716599"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.83400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.82995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.83400809716599"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39854,11 +39855,14 @@
       </c>
     </row>
     <row r="2178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2178" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2178" s="0" t="s">
         <v>887</v>
       </c>
       <c r="C2178" s="0" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39869,7 +39873,7 @@
         <v>1156</v>
       </c>
       <c r="C2179" s="0" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="2180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39880,7 +39884,7 @@
         <v>3676</v>
       </c>
       <c r="C2180" s="0" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39888,7 +39892,7 @@
         <v>2980</v>
       </c>
       <c r="B2181" s="0" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="C2181" s="0" t="s">
         <v>1065</v>
@@ -39899,7 +39903,7 @@
         <v>2486</v>
       </c>
       <c r="B2182" s="0" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="C2182" s="0" t="s">
         <v>116</v>
@@ -39910,10 +39914,10 @@
         <v>2452</v>
       </c>
       <c r="B2183" s="0" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="C2183" s="0" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39921,29 +39925,29 @@
         <v>1297</v>
       </c>
       <c r="B2184" s="0" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="C2184" s="0" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2185" s="0" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="B2185" s="0" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="C2185" s="0" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="2186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2186" s="0" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="B2186" s="0" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="C2186" s="0" t="s">
         <v>1353</v>
@@ -39951,10 +39955,10 @@
     </row>
     <row r="2187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2187" s="0" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="B2187" s="0" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="C2187" s="0" t="s">
         <v>644</v>
@@ -39962,43 +39966,43 @@
     </row>
     <row r="2188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2188" s="0" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="B2188" s="0" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="C2188" s="0" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2189" s="0" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="B2189" s="0" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="C2189" s="0" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2190" s="0" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="B2190" s="0" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="C2190" s="0" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2191" s="0" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="B2191" s="0" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="C2191" s="0" t="s">
         <v>203</v>
@@ -40006,10 +40010,10 @@
     </row>
     <row r="2192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2192" s="0" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="B2192" s="0" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="C2192" s="0" t="s">
         <v>478</v>
@@ -40017,10 +40021,10 @@
     </row>
     <row r="2193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2193" s="0" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="B2193" s="0" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="C2193" s="0" t="s">
         <v>478</v>
@@ -40028,7 +40032,7 @@
     </row>
     <row r="2194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2194" s="0" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="B2194" s="0" t="s">
         <v>495</v>
@@ -40039,10 +40043,10 @@
     </row>
     <row r="2195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2195" s="0" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="B2195" s="0" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="C2195" s="0" t="s">
         <v>805</v>
@@ -40050,21 +40054,21 @@
     </row>
     <row r="2196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2196" s="0" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="B2196" s="0" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="C2196" s="0" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="2197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2197" s="0" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="B2197" s="0" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="C2197" s="0" t="s">
         <v>971</v>
@@ -40072,32 +40076,32 @@
     </row>
     <row r="2198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2198" s="0" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="B2198" s="0" t="s">
         <v>1047</v>
       </c>
       <c r="C2198" s="0" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="2199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2199" s="0" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="B2199" s="0" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="C2199" s="0" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="2200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2200" s="0" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="B2200" s="0" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="C2200" s="0" t="s">
         <v>174</v>
@@ -40105,21 +40109,21 @@
     </row>
     <row r="2201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2201" s="0" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="B2201" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C2201" s="0" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="2202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2202" s="0" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="B2202" s="0" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="C2202" s="0" t="s">
         <v>8</v>
@@ -40127,65 +40131,65 @@
     </row>
     <row r="2203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2203" s="0" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="B2203" s="0" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="C2203" s="0" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="2204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2204" s="0" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="B2204" s="0" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="C2204" s="0" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="2205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2205" s="0" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="B2205" s="0" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="C2205" s="0" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="2206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2206" s="0" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="B2206" s="0" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="C2206" s="0" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="2207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2207" s="0" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="B2207" s="0" t="s">
         <v>1827</v>
       </c>
       <c r="C2207" s="0" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="2208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2208" s="0" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="B2208" s="0" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="C2208" s="0" t="s">
         <v>1024</v>
@@ -40193,15 +40197,15 @@
     </row>
     <row r="2209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2209" s="0" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="C2209" s="0" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="2210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2210" s="0" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="B2210" s="0" t="s">
         <v>2445</v>
@@ -40212,10 +40216,10 @@
     </row>
     <row r="2211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2211" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="C2211" s="0" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="2212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40234,7 +40238,7 @@
         <v>2555</v>
       </c>
       <c r="B2213" s="0" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="C2213" s="0" t="s">
         <v>3571</v>
@@ -40242,10 +40246,10 @@
     </row>
     <row r="2214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2214" s="0" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="B2214" s="0" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="C2214" s="0" t="s">
         <v>805</v>
@@ -40253,65 +40257,65 @@
     </row>
     <row r="2215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2215" s="0" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="B2215" s="0" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="C2215" s="0" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="2216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2216" s="0" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="B2216" s="0" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="C2216" s="0" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2217" s="0" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B2217" s="0" t="s">
         <v>1150</v>
       </c>
       <c r="C2217" s="0" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2218" s="0" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B2218" s="0" t="s">
         <v>4288</v>
       </c>
       <c r="C2218" s="0" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2219" s="0" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="B2219" s="0" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="C2219" s="0" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="2220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2220" s="0" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="B2220" s="0" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="C2220" s="0" t="s">
         <v>3926</v>
@@ -40319,18 +40323,18 @@
     </row>
     <row r="2221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2221" s="0" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="B2221" s="0" t="s">
         <v>796</v>
       </c>
       <c r="C2221" s="0" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="2222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2222" s="0" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="B2222" s="0" t="s">
         <v>878</v>
@@ -40341,21 +40345,21 @@
     </row>
     <row r="2223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2223" s="0" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="B2223" s="0" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="C2223" s="0" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="2224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2224" s="0" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="B2224" s="0" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="C2224" s="0" t="s">
         <v>11</v>
@@ -40363,21 +40367,21 @@
     </row>
     <row r="2225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2225" s="0" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="B2225" s="0" t="s">
         <v>1887</v>
       </c>
       <c r="C2225" s="0" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="2226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2226" s="0" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="B2226" s="0" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="C2226" s="0" t="s">
         <v>4544</v>
@@ -40385,54 +40389,54 @@
     </row>
     <row r="2227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2227" s="0" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="B2227" s="0" t="s">
         <v>2258</v>
       </c>
       <c r="C2227" s="0" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="2228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2228" s="0" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="B2228" s="0" t="s">
         <v>121</v>
       </c>
       <c r="C2228" s="0" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="2229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2229" s="0" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="B2229" s="0" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="C2229" s="0" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="2230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2230" s="0" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="B2230" s="0" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="C2230" s="0" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="2231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2231" s="0" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="B2231" s="0" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="C2231" s="0" t="s">
         <v>942</v>
@@ -40440,40 +40444,40 @@
     </row>
     <row r="2232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2232" s="0" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B2232" s="0" t="s">
         <v>796</v>
       </c>
       <c r="C2232" s="0" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2233" s="0" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="B2233" s="0" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
       <c r="C2233" s="0" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="2234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2234" s="0" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="B2234" s="0" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="C2234" s="0" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="2235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2235" s="0" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="B2235" s="0" t="s">
         <v>977</v>
@@ -40484,7 +40488,7 @@
     </row>
     <row r="2236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2236" s="0" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="B2236" s="0" t="s">
         <v>16</v>
@@ -40495,51 +40499,51 @@
     </row>
     <row r="2237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2237" s="0" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="C2237" s="0" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="2238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2238" s="0" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="B2238" s="0" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="C2238" s="0" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="2239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2239" s="0" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="B2239" s="0" t="s">
         <v>977</v>
       </c>
       <c r="C2239" s="0" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="2240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2240" s="0" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="B2240" s="0" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="C2240" s="0" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="2241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2241" s="0" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="B2241" s="0" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="C2241" s="0" t="s">
         <v>1353</v>
@@ -40547,32 +40551,32 @@
     </row>
     <row r="2242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2242" s="0" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="B2242" s="0" t="s">
         <v>944</v>
       </c>
       <c r="C2242" s="0" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="2243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2243" s="0" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="B2243" s="0" t="s">
         <v>977</v>
       </c>
       <c r="C2243" s="0" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="2244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2244" s="0" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="B2244" s="0" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="C2244" s="0" t="s">
         <v>644</v>
@@ -40580,18 +40584,18 @@
     </row>
     <row r="2245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2245" s="0" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="B2245" s="0" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="C2245" s="0" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="2246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2246" s="0" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="B2246" s="0" t="s">
         <v>379</v>
@@ -40602,18 +40606,18 @@
     </row>
     <row r="2247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2247" s="0" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="B2247" s="0" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="C2247" s="0" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="2248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2248" s="0" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
       <c r="B2248" s="0" t="s">
         <v>805</v>
@@ -40624,43 +40628,43 @@
     </row>
     <row r="2249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2249" s="0" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
       <c r="B2249" s="0" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
       <c r="C2249" s="0" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="2250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2250" s="0" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
       <c r="B2250" s="0" t="s">
         <v>1517</v>
       </c>
       <c r="C2250" s="0" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="2251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2251" s="0" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
       <c r="B2251" s="0" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
       <c r="C2251" s="0" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="2252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2252" s="0" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="B2252" s="0" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
       <c r="C2252" s="0" t="s">
         <v>1356</v>
@@ -40668,18 +40672,18 @@
     </row>
     <row r="2253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2253" s="0" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
       <c r="B2253" s="0" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
       <c r="C2253" s="0" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="2254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2254" s="0" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
       <c r="B2254" s="0" t="s">
         <v>4510</v>
@@ -40690,32 +40694,32 @@
     </row>
     <row r="2255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2255" s="0" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
       <c r="B2255" s="0" t="s">
         <v>1340</v>
       </c>
       <c r="C2255" s="0" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="2256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2256" s="0" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="B2256" s="0" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="C2256" s="0" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="2257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2257" s="0" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="B2257" s="0" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
       <c r="C2257" s="0" t="s">
         <v>1363</v>
@@ -40723,35 +40727,35 @@
     </row>
     <row r="2258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2258" s="0" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
       <c r="B2258" s="0" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
       <c r="C2258" s="0" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="2259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2259" s="0" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
       <c r="B2259" s="0" t="s">
         <v>1432</v>
       </c>
       <c r="C2259" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2260" s="0" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
       <c r="B2260" s="0" t="s">
         <v>3989</v>
       </c>
       <c r="C2260" s="0" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="2261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40767,10 +40771,10 @@
     </row>
     <row r="2262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2262" s="0" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="B2262" s="0" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
       <c r="C2262" s="0" t="s">
         <v>1024</v>
@@ -40778,18 +40782,18 @@
     </row>
     <row r="2263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2263" s="0" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="B2263" s="0" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="C2263" s="0" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="2264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2264" s="0" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="B2264" s="0" t="s">
         <v>121</v>
@@ -40800,7 +40804,7 @@
     </row>
     <row r="2265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2265" s="0" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="C2265" s="0" t="s">
         <v>805</v>
@@ -40808,18 +40812,21 @@
     </row>
     <row r="2266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2266" s="0" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="B2266" s="0" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
       <c r="C2266" s="0" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="2267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2267" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2267" s="0" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="C2267" s="0" t="s">
         <v>1643</v>
@@ -40827,7 +40834,7 @@
     </row>
     <row r="2268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2268" s="0" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
       <c r="B2268" s="0" t="s">
         <v>4433</v>
@@ -40838,43 +40845,43 @@
     </row>
     <row r="2269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2269" s="0" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
       <c r="B2269" s="0" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="C2269" s="0" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="2270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2270" s="0" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="B2270" s="0" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="C2270" s="0" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2271" s="0" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
       <c r="B2271" s="0" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
       <c r="C2271" s="0" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="2272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2272" s="0" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
       <c r="B2272" s="0" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="C2272" s="0" t="s">
         <v>16</v>
@@ -40882,7 +40889,7 @@
     </row>
     <row r="2273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2273" s="0" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
       <c r="B2273" s="0" t="s">
         <v>3594</v>
@@ -40896,7 +40903,7 @@
         <v>2553</v>
       </c>
       <c r="B2274" s="0" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="C2274" s="0" t="s">
         <v>805</v>
@@ -40904,7 +40911,7 @@
     </row>
     <row r="2275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2275" s="0" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
       <c r="B2275" s="0" t="s">
         <v>1774</v>
@@ -40915,7 +40922,7 @@
     </row>
     <row r="2276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2276" s="0" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
       <c r="B2276" s="0" t="s">
         <v>3552</v>
@@ -40926,43 +40933,43 @@
     </row>
     <row r="2277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2277" s="0" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
       <c r="B2277" s="0" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
       <c r="C2277" s="0" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="2278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2278" s="0" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
       <c r="B2278" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2278" s="0" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="2279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2279" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="B2279" s="0" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
       <c r="C2279" s="0" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="2280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2280" s="0" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
       <c r="B2280" s="0" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="C2280" s="0" t="s">
         <v>8</v>
@@ -40970,7 +40977,7 @@
     </row>
     <row r="2281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2281" s="0" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
       <c r="B2281" s="0" t="s">
         <v>1032</v>
@@ -40981,29 +40988,29 @@
     </row>
     <row r="2282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2282" s="0" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
       <c r="B2282" s="0" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
       <c r="C2282" s="0" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="2283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2283" s="0" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="B2283" s="0" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
       <c r="C2283" s="0" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="2284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2284" s="0" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
       <c r="B2284" s="0" t="s">
         <v>30</v>
@@ -41014,7 +41021,7 @@
     </row>
     <row r="2285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2285" s="0" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="B2285" s="0" t="s">
         <v>16</v>
@@ -41025,10 +41032,10 @@
     </row>
     <row r="2286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2286" s="0" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="B2286" s="0" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="C2286" s="0" t="s">
         <v>17</v>
@@ -41036,7 +41043,7 @@
     </row>
     <row r="2287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2287" s="0" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="B2287" s="0" t="s">
         <v>4407</v>
@@ -41047,7 +41054,7 @@
     </row>
     <row r="2288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2288" s="0" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="B2288" s="0" t="s">
         <v>16</v>
@@ -41058,7 +41065,7 @@
     </row>
     <row r="2289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2289" s="0" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="B2289" s="0" t="s">
         <v>179</v>
@@ -41083,7 +41090,7 @@
         <v>1608</v>
       </c>
       <c r="B2291" s="0" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="C2291" s="0" t="s">
         <v>1532</v>
@@ -41091,43 +41098,43 @@
     </row>
     <row r="2292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2292" s="0" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="B2292" s="0" t="s">
         <v>3582</v>
       </c>
       <c r="C2292" s="0" t="s">
-        <v>4794</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="2293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2293" s="0" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
       <c r="B2293" s="0" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
       <c r="C2293" s="0" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2294" s="0" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
       <c r="B2294" s="0" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
       <c r="C2294" s="0" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="2295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2295" s="0" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="B2295" s="0" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="C2295" s="0" t="s">
         <v>805</v>
@@ -41135,29 +41142,29 @@
     </row>
     <row r="2296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2296" s="0" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
       <c r="B2296" s="0" t="s">
-        <v>4804</v>
+        <v>4805</v>
       </c>
       <c r="C2296" s="0" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="2297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2297" s="0" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="C2297" s="0" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="2298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2298" s="0" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
       <c r="C2298" s="0" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41165,7 +41172,7 @@
         <v>16</v>
       </c>
       <c r="C2299" s="0" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="2300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41173,7 +41180,7 @@
         <v>977</v>
       </c>
       <c r="C2300" s="0" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="2301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41186,13 +41193,13 @@
     </row>
     <row r="2302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2302" s="0" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
       <c r="B2302" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2302" s="0" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="2303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41203,15 +41210,15 @@
         <v>116</v>
       </c>
       <c r="C2303" s="0" t="s">
-        <v>4813</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="2304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2304" s="0" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
       <c r="C2304" s="0" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="2305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41224,18 +41231,18 @@
     </row>
     <row r="2306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2306" s="0" t="s">
-        <v>4816</v>
+        <v>4817</v>
       </c>
       <c r="B2306" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C2306" s="0" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="2307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2307" s="0" t="s">
-        <v>4818</v>
+        <v>4819</v>
       </c>
       <c r="C2307" s="0" t="s">
         <v>116</v>
@@ -41243,10 +41250,10 @@
     </row>
     <row r="2308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2308" s="0" t="s">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="B2308" s="0" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="C2308" s="0" t="s">
         <v>887</v>
@@ -41254,13 +41261,13 @@
     </row>
     <row r="2309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2309" s="0" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
       <c r="B2309" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C2309" s="0" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="2310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41276,42 +41283,42 @@
         <v>1027</v>
       </c>
       <c r="C2311" s="0" t="s">
-        <v>4823</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="2312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2312" s="0" t="s">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="C2312" s="0" t="s">
-        <v>4825</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="2313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2313" s="0" t="s">
-        <v>4826</v>
+        <v>4827</v>
       </c>
       <c r="B2313" s="0" t="s">
-        <v>4827</v>
+        <v>4828</v>
       </c>
       <c r="C2313" s="0" t="s">
-        <v>4828</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="2314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2314" s="0" t="s">
-        <v>4829</v>
+        <v>4830</v>
       </c>
       <c r="B2314" s="0" t="s">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="C2314" s="0" t="s">
-        <v>4831</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2315" s="0" t="s">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="C2315" s="0" t="s">
         <v>3600</v>
@@ -41322,12 +41329,12 @@
         <v>977</v>
       </c>
       <c r="C2316" s="0" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="2317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2317" s="0" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
       <c r="C2317" s="0" t="s">
         <v>3771</v>
@@ -41335,43 +41342,43 @@
     </row>
     <row r="2318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2318" s="0" t="s">
-        <v>4834</v>
+        <v>4835</v>
       </c>
       <c r="B2318" s="0" t="s">
-        <v>4835</v>
+        <v>4836</v>
       </c>
       <c r="C2318" s="0" t="s">
-        <v>4828</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="2319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2319" s="0" t="s">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="B2319" s="0" t="s">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="C2319" s="0" t="s">
-        <v>4838</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="2320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2320" s="0" t="s">
-        <v>4839</v>
+        <v>4840</v>
       </c>
       <c r="B2320" s="0" t="s">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="C2320" s="0" t="s">
-        <v>4841</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="2321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2321" s="0" t="s">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="B2321" s="0" t="s">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="C2321" s="0" t="s">
         <v>815</v>
@@ -41379,35 +41386,35 @@
     </row>
     <row r="2322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2322" s="0" t="s">
-        <v>4839</v>
+        <v>4840</v>
       </c>
       <c r="B2322" s="0" t="s">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="C2322" s="0" t="s">
-        <v>4845</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="2323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2323" s="0" t="s">
-        <v>4846</v>
+        <v>4847</v>
       </c>
       <c r="B2323" s="0" t="s">
         <v>977</v>
       </c>
       <c r="C2323" s="0" t="s">
-        <v>4847</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="2324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2324" s="0" t="s">
-        <v>4848</v>
+        <v>4849</v>
       </c>
       <c r="B2324" s="0" t="s">
-        <v>4849</v>
+        <v>4850</v>
       </c>
       <c r="C2324" s="0" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="2325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41420,7 +41427,7 @@
     </row>
     <row r="2326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2326" s="0" t="s">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="B2326" s="0" t="s">
         <v>40</v>
@@ -41431,35 +41438,35 @@
     </row>
     <row r="2327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2327" s="0" t="s">
-        <v>4851</v>
+        <v>4852</v>
       </c>
       <c r="B2327" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C2327" s="0" t="s">
-        <v>4852</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="2328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2328" s="0" t="s">
-        <v>4853</v>
+        <v>4854</v>
       </c>
       <c r="B2328" s="0" t="s">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="C2328" s="0" t="s">
-        <v>4855</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="2329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2329" s="0" t="s">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="B2329" s="0" t="s">
-        <v>4857</v>
+        <v>4858</v>
       </c>
       <c r="C2329" s="0" t="s">
-        <v>4858</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="2330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41472,18 +41479,18 @@
     </row>
     <row r="2331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2331" s="0" t="s">
-        <v>4859</v>
+        <v>4860</v>
       </c>
       <c r="C2331" s="0" t="s">
-        <v>4860</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="2332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2332" s="0" t="s">
-        <v>4861</v>
+        <v>4862</v>
       </c>
       <c r="B2332" s="0" t="s">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="C2332" s="0" t="s">
         <v>3725</v>
@@ -41510,13 +41517,13 @@
     </row>
     <row r="2335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2335" s="0" t="s">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="B2335" s="0" t="s">
-        <v>4864</v>
+        <v>4865</v>
       </c>
       <c r="C2335" s="0" t="s">
-        <v>4865</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="2336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41524,18 +41531,18 @@
         <v>1805</v>
       </c>
       <c r="C2336" s="0" t="s">
-        <v>4866</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="2337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2337" s="0" t="s">
-        <v>4867</v>
+        <v>4868</v>
       </c>
       <c r="B2337" s="0" t="s">
-        <v>4868</v>
+        <v>4869</v>
       </c>
       <c r="C2337" s="0" t="s">
-        <v>4869</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="2338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41551,10 +41558,10 @@
     </row>
     <row r="2339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2339" s="0" t="s">
-        <v>4870</v>
+        <v>4871</v>
       </c>
       <c r="C2339" s="0" t="s">
-        <v>4871</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="2340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41562,7 +41569,7 @@
         <v>1827</v>
       </c>
       <c r="C2340" s="0" t="s">
-        <v>4872</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="2341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41575,29 +41582,29 @@
     </row>
     <row r="2342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2342" s="0" t="s">
-        <v>4873</v>
+        <v>4874</v>
       </c>
       <c r="B2342" s="0" t="s">
         <v>1340</v>
       </c>
       <c r="C2342" s="0" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2343" s="0" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="C2343" s="0" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="2344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2344" s="0" t="s">
-        <v>4876</v>
+        <v>4877</v>
       </c>
       <c r="B2344" s="0" t="s">
-        <v>4877</v>
+        <v>4878</v>
       </c>
       <c r="C2344" s="0" t="s">
         <v>2224</v>
@@ -41605,7 +41612,7 @@
     </row>
     <row r="2345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2345" s="0" t="s">
-        <v>4878</v>
+        <v>4879</v>
       </c>
       <c r="B2345" s="0" t="s">
         <v>878</v>
@@ -41616,21 +41623,21 @@
     </row>
     <row r="2346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2346" s="0" t="s">
-        <v>4879</v>
+        <v>4880</v>
       </c>
       <c r="B2346" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C2346" s="0" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2347" s="0" t="s">
-        <v>4880</v>
+        <v>4881</v>
       </c>
       <c r="B2347" s="0" t="s">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="C2347" s="0" t="s">
         <v>883</v>
@@ -41649,7 +41656,7 @@
     </row>
     <row r="2349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2349" s="0" t="s">
-        <v>4882</v>
+        <v>4883</v>
       </c>
       <c r="B2349" s="0" t="s">
         <v>805</v>
@@ -41660,10 +41667,10 @@
     </row>
     <row r="2350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2350" s="0" t="s">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="B2350" s="0" t="s">
-        <v>4884</v>
+        <v>4885</v>
       </c>
       <c r="C2350" s="0" t="s">
         <v>3997</v>
@@ -41671,24 +41678,24 @@
     </row>
     <row r="2351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2351" s="0" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
       <c r="B2351" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C2351" s="0" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="2352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2352" s="0" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B2352" s="0" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C2352" s="0" t="s">
         <v>4887</v>
-      </c>
-      <c r="B2352" s="0" t="s">
-        <v>4888</v>
-      </c>
-      <c r="C2352" s="0" t="s">
-        <v>4886</v>
       </c>
     </row>
     <row r="2353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41696,7 +41703,7 @@
         <v>3475</v>
       </c>
       <c r="C2353" s="0" t="s">
-        <v>4889</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="2354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41712,40 +41719,40 @@
     </row>
     <row r="2355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2355" s="0" t="s">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="B2355" s="0" t="s">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="C2355" s="0" t="s">
-        <v>4892</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="2356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2356" s="0" t="s">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="B2356" s="0" t="s">
         <v>1834</v>
       </c>
       <c r="C2356" s="0" t="s">
-        <v>4894</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="2357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2357" s="0" t="s">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="B2357" s="0" t="s">
         <v>1075</v>
       </c>
       <c r="C2357" s="0" t="s">
-        <v>4896</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="2358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2358" s="0" t="s">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="B2358" s="0" t="s">
         <v>1168</v>
@@ -41756,26 +41763,26 @@
     </row>
     <row r="2359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2359" s="0" t="s">
-        <v>4898</v>
+        <v>4899</v>
       </c>
       <c r="C2359" s="0" t="s">
-        <v>4899</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="2360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2360" s="0" t="s">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="B2360" s="0" t="s">
-        <v>4901</v>
+        <v>4902</v>
       </c>
       <c r="C2360" s="0" t="s">
-        <v>4902</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="2361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2361" s="0" t="s">
-        <v>4903</v>
+        <v>4904</v>
       </c>
       <c r="B2361" s="0" t="s">
         <v>30</v>
@@ -41786,10 +41793,10 @@
     </row>
     <row r="2362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2362" s="0" t="s">
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="B2362" s="0" t="s">
-        <v>4905</v>
+        <v>4906</v>
       </c>
       <c r="C2362" s="0" t="s">
         <v>1346</v>
@@ -41797,7 +41804,7 @@
     </row>
     <row r="2363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2363" s="0" t="s">
-        <v>4906</v>
+        <v>4907</v>
       </c>
       <c r="B2363" s="0" t="s">
         <v>121</v>
@@ -41808,29 +41815,29 @@
     </row>
     <row r="2364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2364" s="0" t="s">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="B2364" s="0" t="s">
-        <v>4908</v>
+        <v>4909</v>
       </c>
       <c r="C2364" s="0" t="s">
-        <v>4909</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="2365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2365" s="0" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
       <c r="B2365" s="0" t="s">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="C2365" s="0" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2366" s="0" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
       <c r="B2366" s="0" t="s">
         <v>16</v>
@@ -41841,7 +41848,7 @@
     </row>
     <row r="2367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2367" s="0" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="B2367" s="0" t="s">
         <v>1182</v>
@@ -41852,7 +41859,7 @@
     </row>
     <row r="2368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2368" s="0" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="B2368" s="0" t="s">
         <v>1827</v>
@@ -41863,18 +41870,18 @@
     </row>
     <row r="2369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2369" s="0" t="s">
-        <v>4916</v>
+        <v>4917</v>
       </c>
       <c r="B2369" s="0" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
       <c r="C2369" s="0" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="2370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2370" s="0" t="s">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="B2370" s="0" t="s">
         <v>1515</v>
@@ -41885,10 +41892,10 @@
     </row>
     <row r="2371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2371" s="0" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
       <c r="B2371" s="0" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="C2371" s="0" t="s">
         <v>53</v>
@@ -41896,10 +41903,10 @@
     </row>
     <row r="2372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2372" s="0" t="s">
-        <v>4922</v>
+        <v>4923</v>
       </c>
       <c r="B2372" s="0" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
       <c r="C2372" s="0" t="s">
         <v>4533</v>
@@ -41907,32 +41914,32 @@
     </row>
     <row r="2373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2373" s="0" t="s">
-        <v>4924</v>
+        <v>4925</v>
       </c>
       <c r="B2373" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2373" s="0" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="2374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2374" s="0" t="s">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="B2374" s="0" t="s">
-        <v>4927</v>
+        <v>4928</v>
       </c>
       <c r="C2374" s="0" t="s">
-        <v>4928</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="2375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2375" s="0" t="s">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="B2375" s="0" t="s">
-        <v>4930</v>
+        <v>4931</v>
       </c>
       <c r="C2375" s="0" t="s">
         <v>4160</v>
@@ -41940,10 +41947,10 @@
     </row>
     <row r="2376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2376" s="0" t="s">
-        <v>4931</v>
+        <v>4932</v>
       </c>
       <c r="B2376" s="0" t="s">
-        <v>4932</v>
+        <v>4933</v>
       </c>
       <c r="C2376" s="0" t="s">
         <v>815</v>
@@ -41951,10 +41958,10 @@
     </row>
     <row r="2377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2377" s="0" t="s">
-        <v>4933</v>
+        <v>4934</v>
       </c>
       <c r="B2377" s="0" t="s">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="C2377" s="0" t="s">
         <v>17</v>
@@ -41962,7 +41969,7 @@
     </row>
     <row r="2378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2378" s="0" t="s">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="B2378" s="0" t="s">
         <v>967</v>
@@ -41973,10 +41980,10 @@
     </row>
     <row r="2379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2379" s="0" t="s">
-        <v>4936</v>
+        <v>4937</v>
       </c>
       <c r="B2379" s="0" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="C2379" s="0" t="s">
         <v>921</v>
@@ -41984,21 +41991,21 @@
     </row>
     <row r="2380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2380" s="0" t="s">
-        <v>4938</v>
+        <v>4939</v>
       </c>
       <c r="B2380" s="0" t="s">
-        <v>4939</v>
+        <v>4940</v>
       </c>
       <c r="C2380" s="0" t="s">
-        <v>4940</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2381" s="0" t="s">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="B2381" s="0" t="s">
-        <v>4942</v>
+        <v>4943</v>
       </c>
       <c r="C2381" s="0" t="s">
         <v>1356</v>
@@ -42006,51 +42013,51 @@
     </row>
     <row r="2382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2382" s="0" t="s">
-        <v>4943</v>
+        <v>4944</v>
       </c>
       <c r="B2382" s="0" t="s">
-        <v>4944</v>
+        <v>4945</v>
       </c>
       <c r="C2382" s="0" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="2383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2383" s="0" t="s">
-        <v>4945</v>
+        <v>4946</v>
       </c>
       <c r="B2383" s="0" t="s">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="C2383" s="0" t="s">
-        <v>4947</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="2384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2384" s="0" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
       <c r="B2384" s="0" t="s">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="C2384" s="0" t="s">
-        <v>4950</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2385" s="0" t="s">
-        <v>4951</v>
+        <v>4952</v>
       </c>
       <c r="B2385" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C2385" s="0" t="s">
-        <v>4952</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2386" s="0" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="B2386" s="0" t="s">
         <v>16</v>
@@ -42061,43 +42068,43 @@
     </row>
     <row r="2387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2387" s="0" t="s">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="B2387" s="0" t="s">
-        <v>4955</v>
+        <v>4956</v>
       </c>
       <c r="C2387" s="0" t="s">
-        <v>4956</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2388" s="0" t="s">
-        <v>4957</v>
+        <v>4958</v>
       </c>
       <c r="B2388" s="0" t="s">
         <v>1786</v>
       </c>
       <c r="C2388" s="0" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="2389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2389" s="0" t="s">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="B2389" s="0" t="s">
         <v>1988</v>
       </c>
       <c r="C2389" s="0" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="2390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2390" s="0" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B2390" s="0" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="C2390" s="0" t="s">
         <v>842</v>
@@ -42105,24 +42112,24 @@
     </row>
     <row r="2391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2391" s="0" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="B2391" s="0" t="s">
-        <v>4962</v>
+        <v>4963</v>
       </c>
       <c r="C2391" s="0" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2392" s="0" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
       <c r="B2392" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C2392" s="0" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="2393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42130,7 +42137,7 @@
         <v>4146</v>
       </c>
       <c r="B2393" s="0" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
       <c r="C2393" s="0" t="s">
         <v>644</v>
@@ -42138,10 +42145,10 @@
     </row>
     <row r="2394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2394" s="0" t="s">
-        <v>4967</v>
+        <v>4968</v>
       </c>
       <c r="B2394" s="0" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
       <c r="C2394" s="0" t="s">
         <v>11</v>
@@ -42149,10 +42156,10 @@
     </row>
     <row r="2395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2395" s="0" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
       <c r="B2395" s="0" t="s">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="C2395" s="0" t="s">
         <v>1649</v>
@@ -42160,51 +42167,51 @@
     </row>
     <row r="2396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2396" s="0" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
       <c r="B2396" s="0" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
       <c r="C2396" s="0" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2397" s="0" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
       <c r="B2397" s="0" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
       <c r="C2397" s="0" t="s">
-        <v>4840</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="2398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2398" s="0" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="B2398" s="0" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
       <c r="C2398" s="0" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2399" s="0" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="B2399" s="0" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
       <c r="C2399" s="0" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2400" s="0" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="B2400" s="0" t="s">
         <v>950</v>
@@ -42215,24 +42222,24 @@
     </row>
     <row r="2401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2401" s="0" t="s">
-        <v>4983</v>
+        <v>4984</v>
       </c>
       <c r="B2401" s="0" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="C2401" s="0" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2402" s="0" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
       <c r="B2402" s="0" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="C2402" s="0" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42251,7 +42258,7 @@
         <v>1710</v>
       </c>
       <c r="B2404" s="0" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="C2404" s="0" t="s">
         <v>1528</v>
@@ -42259,18 +42266,18 @@
     </row>
     <row r="2405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2405" s="0" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
       <c r="B2405" s="0" t="s">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="C2405" s="0" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2406" s="0" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="B2406" s="0" t="s">
         <v>1506</v>
@@ -42281,29 +42288,29 @@
     </row>
     <row r="2407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2407" s="0" t="s">
-        <v>4992</v>
+        <v>4993</v>
       </c>
       <c r="B2407" s="0" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
       <c r="C2407" s="0" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2408" s="0" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
       <c r="B2408" s="0" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="C2408" s="0" t="s">
-        <v>4997</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="2409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2409" s="0" t="s">
-        <v>4998</v>
+        <v>4999</v>
       </c>
       <c r="B2409" s="0" t="s">
         <v>2186</v>
@@ -42314,13 +42321,13 @@
     </row>
     <row r="2410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2410" s="0" t="s">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="B2410" s="0" t="s">
         <v>1637</v>
       </c>
       <c r="C2410" s="0" t="s">
-        <v>5000</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42336,10 +42343,10 @@
     </row>
     <row r="2412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2412" s="0" t="s">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="B2412" s="0" t="s">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="C2412" s="0" t="s">
         <v>1305</v>
@@ -42347,18 +42354,18 @@
     </row>
     <row r="2413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2413" s="0" t="s">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="B2413" s="0" t="s">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="C2413" s="0" t="s">
-        <v>5005</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="2414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2414" s="0" t="s">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="B2414" s="0" t="s">
         <v>121</v>
@@ -42369,21 +42376,21 @@
     </row>
     <row r="2415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2415" s="0" t="s">
-        <v>5007</v>
+        <v>5008</v>
       </c>
       <c r="B2415" s="0" t="s">
-        <v>5008</v>
+        <v>5009</v>
       </c>
       <c r="C2415" s="0" t="s">
-        <v>5009</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="2416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2416" s="0" t="s">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="B2416" s="0" t="s">
-        <v>5011</v>
+        <v>5012</v>
       </c>
       <c r="C2416" s="0" t="s">
         <v>11</v>
@@ -42391,29 +42398,29 @@
     </row>
     <row r="2417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2417" s="0" t="s">
-        <v>5012</v>
+        <v>5013</v>
       </c>
       <c r="B2417" s="0" t="s">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="C2417" s="0" t="s">
-        <v>5014</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2418" s="0" t="s">
-        <v>5015</v>
+        <v>5016</v>
       </c>
       <c r="B2418" s="0" t="s">
-        <v>5016</v>
+        <v>5017</v>
       </c>
       <c r="C2418" s="0" t="s">
-        <v>5017</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="2419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2419" s="0" t="s">
-        <v>5018</v>
+        <v>5019</v>
       </c>
       <c r="B2419" s="0" t="s">
         <v>116</v>
@@ -42424,18 +42431,18 @@
     </row>
     <row r="2420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2420" s="0" t="s">
-        <v>5019</v>
+        <v>5020</v>
       </c>
       <c r="B2420" s="0" t="s">
         <v>1517</v>
       </c>
       <c r="C2420" s="0" t="s">
-        <v>5020</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="2421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2421" s="0" t="s">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="B2421" s="0" t="s">
         <v>1774</v>
@@ -42457,7 +42464,7 @@
     </row>
     <row r="2423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2423" s="0" t="s">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="B2423" s="0" t="s">
         <v>887</v>
@@ -42468,13 +42475,13 @@
     </row>
     <row r="2424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2424" s="0" t="s">
-        <v>5022</v>
+        <v>5023</v>
       </c>
       <c r="B2424" s="0" t="s">
         <v>1718</v>
       </c>
       <c r="C2424" s="0" t="s">
-        <v>5023</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="2425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42490,10 +42497,10 @@
     </row>
     <row r="2426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2426" s="0" t="s">
-        <v>5024</v>
+        <v>5025</v>
       </c>
       <c r="B2426" s="0" t="s">
-        <v>5025</v>
+        <v>5026</v>
       </c>
       <c r="C2426" s="0" t="s">
         <v>1363</v>
@@ -42501,10 +42508,10 @@
     </row>
     <row r="2427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2427" s="0" t="s">
-        <v>5026</v>
+        <v>5027</v>
       </c>
       <c r="B2427" s="0" t="s">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="C2427" s="0" t="s">
         <v>1671</v>
@@ -42512,32 +42519,32 @@
     </row>
     <row r="2428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2428" s="0" t="s">
-        <v>5028</v>
+        <v>5029</v>
       </c>
       <c r="B2428" s="0" t="s">
         <v>1383</v>
       </c>
       <c r="C2428" s="0" t="s">
-        <v>5029</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="2429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2429" s="0" t="s">
-        <v>5030</v>
+        <v>5031</v>
       </c>
       <c r="B2429" s="0" t="s">
-        <v>5031</v>
+        <v>5032</v>
       </c>
       <c r="C2429" s="0" t="s">
-        <v>5032</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="2430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2430" s="0" t="s">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="B2430" s="0" t="s">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="C2430" s="0" t="s">
         <v>3506</v>
@@ -42545,40 +42552,40 @@
     </row>
     <row r="2431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2431" s="0" t="s">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="B2431" s="0" t="s">
-        <v>5036</v>
+        <v>5037</v>
       </c>
       <c r="C2431" s="0" t="s">
-        <v>5037</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="2432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2432" s="0" t="s">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="B2432" s="0" t="s">
         <v>3953</v>
       </c>
       <c r="C2432" s="0" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="2433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2433" s="0" t="s">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="B2433" s="0" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="C2433" s="0" t="s">
-        <v>4997</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="2434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2434" s="0" t="s">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="B2434" s="0" t="s">
         <v>40</v>
@@ -42589,7 +42596,7 @@
     </row>
     <row r="2435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2435" s="0" t="s">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="B2435" s="0" t="s">
         <v>1541</v>
@@ -42600,7 +42607,7 @@
     </row>
     <row r="2436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2436" s="0" t="s">
-        <v>5044</v>
+        <v>5045</v>
       </c>
       <c r="B2436" s="0" t="s">
         <v>1751</v>
@@ -42611,29 +42618,29 @@
     </row>
     <row r="2437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2437" s="0" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="B2437" s="0" t="s">
-        <v>5046</v>
+        <v>5047</v>
       </c>
       <c r="C2437" s="0" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="2438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2438" s="0" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="B2438" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2438" s="0" t="s">
-        <v>5049</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="2439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2439" s="0" t="s">
-        <v>5050</v>
+        <v>5051</v>
       </c>
       <c r="B2439" s="0" t="s">
         <v>805</v>
@@ -42644,7 +42651,7 @@
     </row>
     <row r="2440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2440" s="0" t="s">
-        <v>5051</v>
+        <v>5052</v>
       </c>
       <c r="B2440" s="0" t="s">
         <v>1718</v>
@@ -42655,10 +42662,10 @@
     </row>
     <row r="2441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2441" s="0" t="s">
-        <v>5052</v>
+        <v>5053</v>
       </c>
       <c r="B2441" s="0" t="s">
-        <v>5053</v>
+        <v>5054</v>
       </c>
       <c r="C2441" s="0" t="s">
         <v>823</v>
@@ -42666,18 +42673,18 @@
     </row>
     <row r="2442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2442" s="0" t="s">
-        <v>5054</v>
+        <v>5055</v>
       </c>
       <c r="B2442" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C2442" s="0" t="s">
-        <v>5055</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="2443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2443" s="0" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="B2443" s="0" t="s">
         <v>16</v>
@@ -42688,73 +42695,73 @@
     </row>
     <row r="2444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2444" s="0" t="s">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="B2444" s="0" t="s">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="C2444" s="0" t="s">
-        <v>5059</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="2445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2445" s="0" t="s">
-        <v>5060</v>
+        <v>5061</v>
       </c>
       <c r="B2445" s="0" t="s">
         <v>1044</v>
       </c>
       <c r="C2445" s="0" t="s">
-        <v>5061</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="2446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2446" s="0" t="s">
-        <v>5062</v>
+        <v>5063</v>
       </c>
       <c r="B2446" s="0" t="s">
-        <v>5063</v>
+        <v>5064</v>
       </c>
       <c r="C2446" s="0" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2447" s="0" t="s">
-        <v>5064</v>
+        <v>5065</v>
       </c>
       <c r="B2447" s="0" t="s">
         <v>1101</v>
       </c>
       <c r="C2447" s="0" t="s">
-        <v>5065</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="2448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2448" s="0" t="s">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="B2448" s="0" t="s">
-        <v>5067</v>
+        <v>5068</v>
       </c>
       <c r="C2448" s="0" t="s">
-        <v>5068</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="2449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2449" s="0" t="s">
-        <v>5069</v>
+        <v>5070</v>
       </c>
       <c r="B2449" s="0" t="s">
         <v>4416</v>
       </c>
       <c r="C2449" s="0" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="2450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2450" s="0" t="s">
-        <v>5071</v>
+        <v>5072</v>
       </c>
       <c r="B2450" s="0" t="s">
         <v>40</v>
@@ -42765,18 +42772,18 @@
     </row>
     <row r="2451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2451" s="0" t="s">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="B2451" s="0" t="s">
         <v>1373</v>
       </c>
       <c r="C2451" s="0" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="2452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2452" s="0" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="B2452" s="0" t="s">
         <v>16</v>
@@ -42787,21 +42794,21 @@
     </row>
     <row r="2453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2453" s="0" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="B2453" s="0" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="C2453" s="0" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2454" s="0" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="B2454" s="0" t="s">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="C2454" s="0" t="s">
         <v>3373</v>
@@ -42809,21 +42816,21 @@
     </row>
     <row r="2455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2455" s="0" t="s">
-        <v>5077</v>
+        <v>5078</v>
       </c>
       <c r="B2455" s="0" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="C2455" s="0" t="s">
-        <v>5079</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="2456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2456" s="0" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="B2456" s="0" t="s">
-        <v>5081</v>
+        <v>5082</v>
       </c>
       <c r="C2456" s="0" t="s">
         <v>1766</v>
@@ -42831,10 +42838,10 @@
     </row>
     <row r="2457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2457" s="0" t="s">
-        <v>5082</v>
+        <v>5083</v>
       </c>
       <c r="B2457" s="0" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="C2457" s="0" t="s">
         <v>852</v>
@@ -42842,10 +42849,10 @@
     </row>
     <row r="2458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2458" s="0" t="s">
-        <v>5084</v>
+        <v>5085</v>
       </c>
       <c r="B2458" s="0" t="s">
-        <v>5085</v>
+        <v>5086</v>
       </c>
       <c r="C2458" s="0" t="s">
         <v>2094</v>
@@ -42853,10 +42860,10 @@
     </row>
     <row r="2459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2459" s="0" t="s">
-        <v>5086</v>
+        <v>5087</v>
       </c>
       <c r="B2459" s="0" t="s">
-        <v>5087</v>
+        <v>5088</v>
       </c>
       <c r="C2459" s="0" t="s">
         <v>478</v>
@@ -42864,10 +42871,10 @@
     </row>
     <row r="2460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2460" s="0" t="s">
-        <v>5088</v>
+        <v>5089</v>
       </c>
       <c r="B2460" s="0" t="s">
-        <v>5089</v>
+        <v>5090</v>
       </c>
       <c r="C2460" s="0" t="s">
         <v>971</v>
@@ -42875,10 +42882,10 @@
     </row>
     <row r="2461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2461" s="0" t="s">
-        <v>5090</v>
+        <v>5091</v>
       </c>
       <c r="B2461" s="0" t="s">
-        <v>5091</v>
+        <v>5092</v>
       </c>
       <c r="C2461" s="0" t="s">
         <v>805</v>
@@ -42886,32 +42893,32 @@
     </row>
     <row r="2462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2462" s="0" t="s">
-        <v>5092</v>
+        <v>5093</v>
       </c>
       <c r="B2462" s="0" t="s">
-        <v>5093</v>
+        <v>5094</v>
       </c>
       <c r="C2462" s="0" t="s">
-        <v>5094</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="2463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2463" s="0" t="s">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="B2463" s="0" t="s">
-        <v>5096</v>
+        <v>5097</v>
       </c>
       <c r="C2463" s="0" t="s">
-        <v>5097</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="2464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2464" s="0" t="s">
-        <v>5098</v>
+        <v>5099</v>
       </c>
       <c r="B2464" s="0" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="C2464" s="0" t="s">
         <v>3967</v>
@@ -42919,21 +42926,21 @@
     </row>
     <row r="2465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2465" s="0" t="s">
-        <v>5099</v>
+        <v>5100</v>
       </c>
       <c r="B2465" s="0" t="s">
-        <v>5100</v>
+        <v>5101</v>
       </c>
       <c r="C2465" s="0" t="s">
-        <v>5101</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="2466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2466" s="0" t="s">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="B2466" s="0" t="s">
-        <v>5103</v>
+        <v>5104</v>
       </c>
       <c r="C2466" s="0" t="s">
         <v>815</v>
@@ -42941,18 +42948,18 @@
     </row>
     <row r="2467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2467" s="0" t="s">
-        <v>5104</v>
+        <v>5105</v>
       </c>
       <c r="B2467" s="0" t="s">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="C2467" s="0" t="s">
-        <v>5106</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="2468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2468" s="0" t="s">
-        <v>5107</v>
+        <v>5108</v>
       </c>
       <c r="B2468" s="0" t="s">
         <v>2104</v>
@@ -42963,10 +42970,10 @@
     </row>
     <row r="2469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2469" s="0" t="s">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="B2469" s="0" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
       <c r="C2469" s="0" t="s">
         <v>2208</v>
@@ -42974,35 +42981,35 @@
     </row>
     <row r="2470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2470" s="0" t="s">
-        <v>5109</v>
+        <v>5110</v>
       </c>
       <c r="B2470" s="0" t="s">
         <v>2420</v>
       </c>
       <c r="C2470" s="0" t="s">
-        <v>5110</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="2471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2471" s="0" t="s">
-        <v>5111</v>
+        <v>5112</v>
       </c>
       <c r="B2471" s="0" t="s">
-        <v>5112</v>
+        <v>5113</v>
       </c>
       <c r="C2471" s="0" t="s">
-        <v>5113</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="2472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2472" s="0" t="s">
-        <v>5114</v>
+        <v>5115</v>
       </c>
       <c r="B2472" s="0" t="s">
         <v>1681</v>
       </c>
       <c r="C2472" s="0" t="s">
-        <v>5115</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="2473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43029,10 +43036,10 @@
     </row>
     <row r="2475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2475" s="0" t="s">
-        <v>5116</v>
+        <v>5117</v>
       </c>
       <c r="B2475" s="0" t="s">
-        <v>5117</v>
+        <v>5118</v>
       </c>
       <c r="C2475" s="0" t="s">
         <v>1350</v>
@@ -43040,40 +43047,40 @@
     </row>
     <row r="2476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2476" s="0" t="s">
-        <v>5118</v>
+        <v>5119</v>
       </c>
       <c r="B2476" s="0" t="s">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="C2476" s="0" t="s">
-        <v>5120</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2477" s="0" t="s">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="B2477" s="0" t="s">
         <v>1340</v>
       </c>
       <c r="C2477" s="0" t="s">
-        <v>5122</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="2478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2478" s="0" t="s">
-        <v>5123</v>
+        <v>5124</v>
       </c>
       <c r="B2478" s="0" t="s">
         <v>3475</v>
       </c>
       <c r="C2478" s="0" t="s">
-        <v>5124</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="2479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2479" s="0" t="s">
-        <v>5125</v>
+        <v>5126</v>
       </c>
       <c r="B2479" s="0" t="s">
         <v>16</v>
@@ -43084,27 +43091,30 @@
     </row>
     <row r="2480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2480" s="0" t="s">
-        <v>5126</v>
+        <v>5127</v>
       </c>
       <c r="B2480" s="0" t="s">
-        <v>5127</v>
+        <v>5128</v>
       </c>
       <c r="C2480" s="0" t="s">
-        <v>5128</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2481" s="0" t="s">
-        <v>5129</v>
+        <v>5130</v>
       </c>
       <c r="B2481" s="0" t="s">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="C2481" s="0" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="2482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2482" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2482" s="0" t="s">
         <v>3816</v>
       </c>
@@ -43136,7 +43146,7 @@
     </row>
     <row r="2485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2485" s="0" t="s">
-        <v>5131</v>
+        <v>5132</v>
       </c>
       <c r="B2485" s="0" t="s">
         <v>4407</v>
@@ -43147,10 +43157,10 @@
     </row>
     <row r="2486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2486" s="0" t="s">
-        <v>5132</v>
+        <v>5133</v>
       </c>
       <c r="B2486" s="0" t="s">
-        <v>5133</v>
+        <v>5134</v>
       </c>
       <c r="C2486" s="0" t="s">
         <v>1598</v>
@@ -43161,7 +43171,7 @@
         <v>4508</v>
       </c>
       <c r="B2487" s="0" t="s">
-        <v>5134</v>
+        <v>5135</v>
       </c>
       <c r="C2487" s="0" t="s">
         <v>179</v>
@@ -43169,24 +43179,24 @@
     </row>
     <row r="2488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2488" s="0" t="s">
-        <v>5135</v>
+        <v>5136</v>
       </c>
       <c r="B2488" s="0" t="s">
-        <v>5136</v>
+        <v>5137</v>
       </c>
       <c r="C2488" s="0" t="s">
-        <v>5137</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="2489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2489" s="0" t="s">
-        <v>5138</v>
+        <v>5139</v>
       </c>
       <c r="B2489" s="0" t="s">
-        <v>5139</v>
+        <v>5140</v>
       </c>
       <c r="C2489" s="0" t="s">
-        <v>5140</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43194,18 +43204,18 @@
         <v>4508</v>
       </c>
       <c r="B2490" s="0" t="s">
-        <v>5141</v>
+        <v>5142</v>
       </c>
       <c r="C2490" s="0" t="s">
-        <v>5142</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2491" s="0" t="s">
-        <v>5143</v>
+        <v>5144</v>
       </c>
       <c r="B2491" s="0" t="s">
-        <v>5144</v>
+        <v>5145</v>
       </c>
       <c r="C2491" s="0" t="s">
         <v>116</v>
@@ -43213,29 +43223,29 @@
     </row>
     <row r="2492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2492" s="0" t="s">
-        <v>5145</v>
+        <v>5146</v>
       </c>
       <c r="B2492" s="0" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="C2492" s="0" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="2493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2493" s="0" t="s">
-        <v>5146</v>
+        <v>5147</v>
       </c>
       <c r="B2493" s="0" t="s">
         <v>1180</v>
       </c>
       <c r="C2493" s="0" t="s">
-        <v>5101</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="2494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2494" s="0" t="s">
-        <v>5147</v>
+        <v>5148</v>
       </c>
       <c r="B2494" s="0" t="s">
         <v>878</v>
@@ -43246,54 +43256,57 @@
     </row>
     <row r="2495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2495" s="0" t="s">
-        <v>5148</v>
+        <v>5149</v>
       </c>
       <c r="B2495" s="0" t="s">
-        <v>5149</v>
+        <v>5150</v>
       </c>
       <c r="C2495" s="0" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="2496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2496" s="0" t="s">
-        <v>5150</v>
+        <v>5151</v>
       </c>
       <c r="B2496" s="0" t="s">
-        <v>5151</v>
+        <v>5152</v>
       </c>
       <c r="C2496" s="0" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="2497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2497" s="0" t="s">
-        <v>5152</v>
+        <v>5153</v>
       </c>
       <c r="B2497" s="0" t="s">
-        <v>5153</v>
+        <v>5154</v>
       </c>
       <c r="C2497" s="0" t="s">
-        <v>5154</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="2498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2498" s="0" t="s">
-        <v>5155</v>
+        <v>5156</v>
       </c>
       <c r="B2498" s="0" t="s">
-        <v>5156</v>
+        <v>5157</v>
       </c>
       <c r="C2498" s="0" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="2499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2499" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2499" s="0" t="s">
-        <v>5157</v>
+        <v>5158</v>
       </c>
       <c r="C2499" s="0" t="s">
-        <v>5158</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43301,7 +43314,7 @@
         <v>805</v>
       </c>
       <c r="C2500" s="0" t="s">
-        <v>5159</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="2501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43309,7 +43322,7 @@
         <v>2300</v>
       </c>
       <c r="B2501" s="0" t="s">
-        <v>5160</v>
+        <v>5161</v>
       </c>
       <c r="C2501" s="0" t="s">
         <v>2302</v>
@@ -43317,7 +43330,7 @@
     </row>
     <row r="2502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2502" s="0" t="s">
-        <v>5161</v>
+        <v>5162</v>
       </c>
       <c r="B2502" s="0" t="s">
         <v>4320</v>
@@ -43327,16 +43340,19 @@
       </c>
     </row>
     <row r="2503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2503" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2503" s="0" t="s">
-        <v>5162</v>
+        <v>5163</v>
       </c>
       <c r="C2503" s="0" t="s">
-        <v>5163</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="2504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2504" s="0" t="s">
-        <v>5164</v>
+        <v>5165</v>
       </c>
       <c r="B2504" s="0" t="s">
         <v>1515</v>
@@ -43347,21 +43363,21 @@
     </row>
     <row r="2505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2505" s="0" t="s">
-        <v>5165</v>
+        <v>5166</v>
       </c>
       <c r="B2505" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C2505" s="0" t="s">
-        <v>5166</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2506" s="0" t="s">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="B2506" s="0" t="s">
-        <v>5168</v>
+        <v>5169</v>
       </c>
       <c r="C2506" s="0" t="s">
         <v>2028</v>
@@ -43369,27 +43385,30 @@
     </row>
     <row r="2507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2507" s="0" t="s">
-        <v>5169</v>
+        <v>5170</v>
       </c>
       <c r="B2507" s="0" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="C2507" s="0" t="s">
-        <v>5170</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2508" s="0" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="B2508" s="0" t="s">
-        <v>5171</v>
+        <v>5172</v>
       </c>
       <c r="C2508" s="0" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="2509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2509" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2509" s="0" t="s">
         <v>1606</v>
       </c>
@@ -43410,37 +43429,43 @@
     </row>
     <row r="2511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2511" s="0" t="s">
-        <v>5172</v>
+        <v>5173</v>
       </c>
       <c r="B2511" s="0" t="s">
         <v>1129</v>
       </c>
       <c r="C2511" s="0" t="s">
-        <v>5173</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="2512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2512" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2512" s="0" t="s">
         <v>3816</v>
       </c>
       <c r="C2512" s="0" t="s">
-        <v>5173</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="2513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2513" s="0" t="s">
-        <v>5174</v>
+        <v>5175</v>
       </c>
       <c r="B2513" s="0" t="s">
         <v>1157</v>
       </c>
       <c r="C2513" s="0" t="s">
-        <v>5175</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="2514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2514" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2514" s="0" t="s">
-        <v>5176</v>
+        <v>5177</v>
       </c>
       <c r="C2514" s="0" t="s">
         <v>805</v>
@@ -43448,10 +43473,10 @@
     </row>
     <row r="2515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2515" s="0" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="B2515" s="0" t="s">
-        <v>5171</v>
+        <v>5172</v>
       </c>
       <c r="C2515" s="0" t="s">
         <v>1643</v>
@@ -43459,7 +43484,7 @@
     </row>
     <row r="2516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2516" s="0" t="s">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="B2516" s="0" t="s">
         <v>30</v>
@@ -43470,40 +43495,46 @@
     </row>
     <row r="2517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2517" s="0" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="B2517" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C2517" s="0" t="s">
-        <v>5166</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2518" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2518" s="0" t="s">
-        <v>5179</v>
+        <v>5180</v>
       </c>
       <c r="C2518" s="0" t="s">
-        <v>5180</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2519" s="0" t="s">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="B2519" s="0" t="s">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="C2519" s="0" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="2520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2520" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2520" s="0" t="s">
-        <v>5183</v>
+        <v>5184</v>
       </c>
       <c r="C2520" s="0" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43519,7 +43550,7 @@
     </row>
     <row r="2522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2522" s="0" t="s">
-        <v>5184</v>
+        <v>5185</v>
       </c>
       <c r="B2522" s="0" t="s">
         <v>2098</v>
@@ -43530,7 +43561,7 @@
     </row>
     <row r="2523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2523" s="0" t="s">
-        <v>5185</v>
+        <v>5186</v>
       </c>
       <c r="B2523" s="0" t="s">
         <v>1623</v>
@@ -43552,10 +43583,10 @@
     </row>
     <row r="2525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2525" s="0" t="s">
-        <v>5164</v>
+        <v>5165</v>
       </c>
       <c r="B2525" s="0" t="s">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="C2525" s="0" t="s">
         <v>2028</v>
@@ -43563,7 +43594,7 @@
     </row>
     <row r="2526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2526" s="0" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="B2526" s="0" t="s">
         <v>3620</v>
@@ -43574,10 +43605,10 @@
     </row>
     <row r="2527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2527" s="0" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="B2527" s="0" t="s">
-        <v>5188</v>
+        <v>5189</v>
       </c>
       <c r="C2527" s="0" t="s">
         <v>998</v>
@@ -43585,18 +43616,18 @@
     </row>
     <row r="2528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2528" s="0" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="B2528" s="0" t="s">
         <v>3692</v>
       </c>
       <c r="C2528" s="0" t="s">
-        <v>5189</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2529" s="0" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="B2529" s="0" t="s">
         <v>1102</v>
@@ -43606,27 +43637,30 @@
       </c>
     </row>
     <row r="2530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2530" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2530" s="0" t="s">
-        <v>5190</v>
+        <v>5191</v>
       </c>
       <c r="C2530" s="0" t="s">
-        <v>5191</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2531" s="0" t="s">
-        <v>5192</v>
+        <v>5193</v>
       </c>
       <c r="B2531" s="0" t="s">
-        <v>5193</v>
+        <v>5194</v>
       </c>
       <c r="C2531" s="0" t="s">
-        <v>5194</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="2532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2532" s="0" t="s">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="B2532" s="0" t="s">
         <v>1032</v>
@@ -43637,7 +43671,7 @@
     </row>
     <row r="2533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2533" s="0" t="s">
-        <v>5196</v>
+        <v>5197</v>
       </c>
       <c r="B2533" s="0" t="s">
         <v>3498</v>
@@ -43647,25 +43681,31 @@
       </c>
     </row>
     <row r="2534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2534" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2534" s="0" t="s">
-        <v>5197</v>
+        <v>5198</v>
       </c>
       <c r="C2534" s="0" t="s">
-        <v>5170</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2535" s="0" t="s">
-        <v>5198</v>
+        <v>5199</v>
       </c>
       <c r="B2535" s="0" t="s">
-        <v>5199</v>
+        <v>5200</v>
       </c>
       <c r="C2535" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2536" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2536" s="0" t="s">
         <v>1513</v>
       </c>
@@ -43674,6 +43714,9 @@
       </c>
     </row>
     <row r="2537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2537" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2537" s="0" t="s">
         <v>998</v>
       </c>
@@ -43683,10 +43726,10 @@
     </row>
     <row r="2538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2538" s="0" t="s">
-        <v>5200</v>
+        <v>5201</v>
       </c>
       <c r="B2538" s="0" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
       <c r="C2538" s="0" t="s">
         <v>1157</v>
@@ -43694,7 +43737,7 @@
     </row>
     <row r="2539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2539" s="0" t="s">
-        <v>5201</v>
+        <v>5202</v>
       </c>
       <c r="B2539" s="0" t="s">
         <v>1581</v>
@@ -43705,10 +43748,10 @@
     </row>
     <row r="2540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2540" s="0" t="s">
-        <v>5202</v>
+        <v>5203</v>
       </c>
       <c r="B2540" s="0" t="s">
-        <v>5016</v>
+        <v>5017</v>
       </c>
       <c r="C2540" s="0" t="s">
         <v>4333</v>
@@ -43716,7 +43759,7 @@
     </row>
     <row r="2541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2541" s="0" t="s">
-        <v>5203</v>
+        <v>5204</v>
       </c>
       <c r="B2541" s="0" t="s">
         <v>40</v>
@@ -43727,7 +43770,7 @@
     </row>
     <row r="2542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2542" s="0" t="s">
-        <v>5204</v>
+        <v>5205</v>
       </c>
       <c r="B2542" s="0" t="s">
         <v>887</v>
@@ -43749,10 +43792,10 @@
     </row>
     <row r="2544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2544" s="0" t="s">
-        <v>5205</v>
+        <v>5206</v>
       </c>
       <c r="B2544" s="0" t="s">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="C2544" s="0" t="s">
         <v>1340</v>
@@ -43760,7 +43803,7 @@
     </row>
     <row r="2545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2545" s="0" t="s">
-        <v>5207</v>
+        <v>5208</v>
       </c>
       <c r="B2545" s="0" t="s">
         <v>941</v>
@@ -43771,10 +43814,10 @@
     </row>
     <row r="2546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2546" s="0" t="s">
-        <v>5208</v>
+        <v>5209</v>
       </c>
       <c r="B2546" s="0" t="s">
-        <v>5209</v>
+        <v>5210</v>
       </c>
       <c r="C2546" s="0" t="s">
         <v>2373</v>
@@ -43782,7 +43825,7 @@
     </row>
     <row r="2547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2547" s="0" t="s">
-        <v>5210</v>
+        <v>5211</v>
       </c>
       <c r="B2547" s="0" t="s">
         <v>2223</v>
@@ -43793,16 +43836,19 @@
     </row>
     <row r="2548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2548" s="0" t="s">
-        <v>5211</v>
+        <v>5212</v>
       </c>
       <c r="B2548" s="0" t="s">
-        <v>5212</v>
+        <v>5213</v>
       </c>
       <c r="C2548" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2549" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2549" s="0" t="s">
         <v>3839</v>
       </c>
@@ -43812,32 +43858,32 @@
     </row>
     <row r="2550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2550" s="0" t="s">
-        <v>5213</v>
+        <v>5214</v>
       </c>
       <c r="B2550" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C2550" s="0" t="s">
-        <v>5214</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="2551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2551" s="0" t="s">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="B2551" s="0" t="s">
         <v>1766</v>
       </c>
       <c r="C2551" s="0" t="s">
-        <v>5216</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="2552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2552" s="0" t="s">
-        <v>5217</v>
+        <v>5218</v>
       </c>
       <c r="B2552" s="0" t="s">
-        <v>5218</v>
+        <v>5219</v>
       </c>
       <c r="C2552" s="0" t="s">
         <v>2122</v>
@@ -43845,7 +43891,7 @@
     </row>
     <row r="2553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2553" s="0" t="s">
-        <v>5219</v>
+        <v>5220</v>
       </c>
       <c r="B2553" s="0" t="s">
         <v>1026</v>
@@ -43856,7 +43902,7 @@
     </row>
     <row r="2554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2554" s="0" t="s">
-        <v>5220</v>
+        <v>5221</v>
       </c>
       <c r="B2554" s="0" t="s">
         <v>16</v>
@@ -43866,14 +43912,20 @@
       </c>
     </row>
     <row r="2555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2555" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2555" s="0" t="s">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="C2555" s="0" t="s">
-        <v>5222</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="2556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2556" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2556" s="0" t="s">
         <v>4087</v>
       </c>
@@ -43883,18 +43935,18 @@
     </row>
     <row r="2557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2557" s="0" t="s">
-        <v>5223</v>
+        <v>5224</v>
       </c>
       <c r="B2557" s="0" t="s">
         <v>1156</v>
       </c>
       <c r="C2557" s="0" t="s">
-        <v>5224</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="2558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2558" s="0" t="s">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="B2558" s="0" t="s">
         <v>1978</v>
@@ -43905,10 +43957,10 @@
     </row>
     <row r="2559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2559" s="0" t="s">
-        <v>5226</v>
+        <v>5227</v>
       </c>
       <c r="B2559" s="0" t="s">
-        <v>5227</v>
+        <v>5228</v>
       </c>
       <c r="C2559" s="0" t="s">
         <v>116</v>
@@ -43916,18 +43968,18 @@
     </row>
     <row r="2560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2560" s="0" t="s">
-        <v>5228</v>
+        <v>5229</v>
       </c>
       <c r="B2560" s="0" t="s">
         <v>3602</v>
       </c>
       <c r="C2560" s="0" t="s">
-        <v>5229</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="2561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2561" s="0" t="s">
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="B2561" s="0" t="s">
         <v>1652</v>
@@ -43938,10 +43990,10 @@
     </row>
     <row r="2562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2562" s="0" t="s">
-        <v>5231</v>
+        <v>5232</v>
       </c>
       <c r="B2562" s="0" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="C2562" s="0" t="s">
         <v>2967</v>
@@ -43949,40 +44001,43 @@
     </row>
     <row r="2563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2563" s="0" t="s">
-        <v>5232</v>
+        <v>5233</v>
       </c>
       <c r="B2563" s="0" t="s">
-        <v>5233</v>
+        <v>5234</v>
       </c>
       <c r="C2563" s="0" t="s">
-        <v>5234</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="2564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2564" s="0" t="s">
-        <v>5235</v>
+        <v>5236</v>
       </c>
       <c r="B2564" s="0" t="s">
-        <v>5236</v>
+        <v>5237</v>
       </c>
       <c r="C2564" s="0" t="s">
         <v>2967</v>
       </c>
     </row>
     <row r="2565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2565" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2565" s="0" t="s">
         <v>1168</v>
       </c>
       <c r="C2565" s="0" t="s">
-        <v>5237</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="2566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2566" s="0" t="s">
-        <v>5238</v>
+        <v>5239</v>
       </c>
       <c r="B2566" s="0" t="s">
-        <v>5239</v>
+        <v>5240</v>
       </c>
       <c r="C2566" s="0" t="s">
         <v>1186</v>
@@ -43990,29 +44045,29 @@
     </row>
     <row r="2567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2567" s="0" t="s">
-        <v>5240</v>
+        <v>5241</v>
       </c>
       <c r="B2567" s="0" t="s">
-        <v>5241</v>
+        <v>5242</v>
       </c>
       <c r="C2567" s="0" t="s">
-        <v>5242</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="2568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2568" s="0" t="s">
-        <v>5243</v>
+        <v>5244</v>
       </c>
       <c r="B2568" s="0" t="s">
         <v>121</v>
       </c>
       <c r="C2568" s="0" t="s">
-        <v>5244</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="2569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2569" s="0" t="s">
-        <v>5245</v>
+        <v>5246</v>
       </c>
       <c r="B2569" s="0" t="s">
         <v>1168</v>
@@ -44023,84 +44078,90 @@
     </row>
     <row r="2570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2570" s="0" t="s">
-        <v>5246</v>
+        <v>5247</v>
       </c>
       <c r="B2570" s="0" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="C2570" s="0" t="s">
         <v>2967</v>
       </c>
     </row>
     <row r="2571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2571" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2571" s="0" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="C2571" s="0" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="2572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2572" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2572" s="0" t="s">
+        <v>5251</v>
+      </c>
+      <c r="C2572" s="0" t="s">
         <v>5250</v>
-      </c>
-      <c r="C2572" s="0" t="s">
-        <v>5249</v>
       </c>
     </row>
     <row r="2573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2573" s="0" t="s">
-        <v>5251</v>
+        <v>5252</v>
       </c>
       <c r="B2573" s="0" t="s">
-        <v>5252</v>
+        <v>5253</v>
       </c>
       <c r="C2573" s="0" t="s">
-        <v>5253</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="2574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2574" s="0" t="s">
-        <v>5254</v>
+        <v>5255</v>
       </c>
       <c r="B2574" s="0" t="s">
-        <v>5255</v>
+        <v>5256</v>
       </c>
       <c r="C2574" s="0" t="s">
-        <v>5256</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="2575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2575" s="0" t="s">
-        <v>5257</v>
+        <v>5258</v>
       </c>
       <c r="B2575" s="0" t="s">
-        <v>5258</v>
+        <v>5259</v>
       </c>
       <c r="C2575" s="0" t="s">
-        <v>5259</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="2576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2576" s="0" t="s">
-        <v>5260</v>
+        <v>5261</v>
       </c>
       <c r="B2576" s="0" t="s">
         <v>3490</v>
       </c>
       <c r="C2576" s="0" t="s">
-        <v>5261</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="2577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2577" s="0" t="s">
-        <v>5262</v>
+        <v>5263</v>
       </c>
       <c r="B2577" s="0" t="s">
-        <v>5263</v>
+        <v>5264</v>
       </c>
       <c r="C2577" s="0" t="s">
-        <v>5264</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="2578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44108,45 +44169,48 @@
         <v>3386</v>
       </c>
       <c r="B2578" s="0" t="s">
-        <v>5265</v>
+        <v>5266</v>
       </c>
       <c r="C2578" s="0" t="s">
-        <v>5266</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="2579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2579" s="0" t="s">
-        <v>5267</v>
+        <v>5268</v>
       </c>
       <c r="B2579" s="0" t="s">
         <v>121</v>
       </c>
       <c r="C2579" s="0" t="s">
-        <v>5268</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="2580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2580" s="0" t="s">
-        <v>5269</v>
+        <v>5270</v>
       </c>
       <c r="B2580" s="0" t="s">
-        <v>5270</v>
+        <v>5271</v>
       </c>
       <c r="C2580" s="0" t="s">
-        <v>5271</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="2581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2581" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2581" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C2581" s="0" t="s">
-        <v>5272</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="2582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2582" s="0" t="s">
-        <v>5273</v>
+        <v>5274</v>
       </c>
       <c r="B2582" s="0" t="s">
         <v>30</v>
@@ -44157,16 +44221,19 @@
     </row>
     <row r="2583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2583" s="0" t="s">
-        <v>5274</v>
+        <v>5275</v>
       </c>
       <c r="B2583" s="0" t="s">
-        <v>5275</v>
+        <v>5276</v>
       </c>
       <c r="C2583" s="0" t="s">
-        <v>5276</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="2584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2584" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2584" s="0" t="s">
         <v>30</v>
       </c>
@@ -44176,21 +44243,21 @@
     </row>
     <row r="2585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2585" s="0" t="s">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="B2585" s="0" t="s">
-        <v>5278</v>
+        <v>5279</v>
       </c>
       <c r="C2585" s="0" t="s">
-        <v>5279</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="2586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2586" s="0" t="s">
-        <v>5280</v>
+        <v>5281</v>
       </c>
       <c r="B2586" s="0" t="s">
-        <v>5281</v>
+        <v>5282</v>
       </c>
       <c r="C2586" s="0" t="s">
         <v>48</v>
@@ -44198,16 +44265,19 @@
     </row>
     <row r="2587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2587" s="0" t="s">
-        <v>5282</v>
+        <v>5283</v>
       </c>
       <c r="B2587" s="0" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="C2587" s="0" t="s">
-        <v>5283</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="2588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2588" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2588" s="0" t="s">
         <v>30</v>
       </c>
@@ -44217,18 +44287,21 @@
     </row>
     <row r="2589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2589" s="0" t="s">
-        <v>5284</v>
+        <v>5285</v>
       </c>
       <c r="B2589" s="0" t="s">
-        <v>5285</v>
+        <v>5286</v>
       </c>
       <c r="C2589" s="0" t="s">
-        <v>5286</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="2590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2590" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2590" s="0" t="s">
-        <v>5287</v>
+        <v>5288</v>
       </c>
       <c r="C2590" s="0" t="s">
         <v>36</v>
@@ -44236,21 +44309,21 @@
     </row>
     <row r="2591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2591" s="0" t="s">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="B2591" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C2591" s="0" t="s">
-        <v>5289</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="2592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2592" s="0" t="s">
-        <v>5290</v>
+        <v>5291</v>
       </c>
       <c r="B2592" s="0" t="s">
-        <v>5291</v>
+        <v>5292</v>
       </c>
       <c r="C2592" s="0" t="s">
         <v>1856</v>
@@ -44258,18 +44331,21 @@
     </row>
     <row r="2593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2593" s="0" t="s">
-        <v>5292</v>
+        <v>5293</v>
       </c>
       <c r="B2593" s="0" t="s">
-        <v>5293</v>
+        <v>5294</v>
       </c>
       <c r="C2593" s="0" t="s">
-        <v>5294</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="2594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2594" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2594" s="0" t="s">
-        <v>5295</v>
+        <v>5296</v>
       </c>
       <c r="C2594" s="0" t="s">
         <v>4399</v>
@@ -44277,18 +44353,21 @@
     </row>
     <row r="2595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2595" s="0" t="s">
-        <v>5296</v>
+        <v>5297</v>
       </c>
       <c r="B2595" s="0" t="s">
-        <v>5297</v>
+        <v>5298</v>
       </c>
       <c r="C2595" s="0" t="s">
-        <v>5298</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2596" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2596" s="0" t="s">
-        <v>5171</v>
+        <v>5172</v>
       </c>
       <c r="C2596" s="0" t="s">
         <v>115</v>
@@ -44296,7 +44375,7 @@
     </row>
     <row r="2597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2597" s="0" t="s">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="B2597" s="0" t="s">
         <v>30</v>
@@ -44307,7 +44386,7 @@
     </row>
     <row r="2598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2598" s="0" t="s">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="B2598" s="0" t="s">
         <v>30</v>
@@ -44318,7 +44397,7 @@
     </row>
     <row r="2599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2599" s="0" t="s">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="B2599" s="0" t="s">
         <v>4287</v>
@@ -44329,10 +44408,10 @@
     </row>
     <row r="2600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2600" s="0" t="s">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="B2600" s="0" t="s">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="C2600" s="0" t="s">
         <v>644</v>
@@ -44340,7 +44419,7 @@
     </row>
     <row r="2601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2601" s="0" t="s">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="B2601" s="0" t="s">
         <v>1110</v>
@@ -44351,7 +44430,7 @@
     </row>
     <row r="2602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2602" s="0" t="s">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="B2602" s="0" t="s">
         <v>3464</v>
@@ -44365,10 +44444,10 @@
         <v>1564</v>
       </c>
       <c r="B2603" s="0" t="s">
-        <v>5305</v>
+        <v>5306</v>
       </c>
       <c r="C2603" s="0" t="s">
-        <v>5306</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="2604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44384,10 +44463,10 @@
     </row>
     <row r="2605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2605" s="0" t="s">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="B2605" s="0" t="s">
-        <v>5308</v>
+        <v>5309</v>
       </c>
       <c r="C2605" s="0" t="s">
         <v>1585</v>
@@ -44395,32 +44474,32 @@
     </row>
     <row r="2606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2606" s="0" t="s">
-        <v>5309</v>
+        <v>5310</v>
       </c>
       <c r="B2606" s="0" t="s">
-        <v>5310</v>
+        <v>5311</v>
       </c>
       <c r="C2606" s="0" t="s">
-        <v>5311</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="2607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2607" s="0" t="s">
+        <v>5313</v>
+      </c>
+      <c r="B2607" s="0" t="s">
+        <v>5314</v>
+      </c>
+      <c r="C2607" s="0" t="s">
         <v>5312</v>
-      </c>
-      <c r="B2607" s="0" t="s">
-        <v>5313</v>
-      </c>
-      <c r="C2607" s="0" t="s">
-        <v>5311</v>
       </c>
     </row>
     <row r="2608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2608" s="0" t="s">
-        <v>5314</v>
+        <v>5315</v>
       </c>
       <c r="B2608" s="0" t="s">
-        <v>5315</v>
+        <v>5316</v>
       </c>
       <c r="C2608" s="0" t="s">
         <v>48</v>
@@ -44428,10 +44507,10 @@
     </row>
     <row r="2609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2609" s="0" t="s">
-        <v>5316</v>
+        <v>5317</v>
       </c>
       <c r="B2609" s="0" t="s">
-        <v>5317</v>
+        <v>5318</v>
       </c>
       <c r="C2609" s="0" t="s">
         <v>1673</v>
@@ -44439,10 +44518,10 @@
     </row>
     <row r="2610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2610" s="0" t="s">
-        <v>5318</v>
+        <v>5319</v>
       </c>
       <c r="B2610" s="0" t="s">
-        <v>5319</v>
+        <v>5320</v>
       </c>
       <c r="C2610" s="0" t="s">
         <v>1203</v>
@@ -44450,7 +44529,7 @@
     </row>
     <row r="2611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2611" s="0" t="s">
-        <v>5320</v>
+        <v>5321</v>
       </c>
       <c r="B2611" s="0" t="s">
         <v>1774</v>
@@ -44461,46 +44540,52 @@
     </row>
     <row r="2612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2612" s="0" t="s">
-        <v>5321</v>
+        <v>5322</v>
       </c>
       <c r="B2612" s="0" t="s">
-        <v>5322</v>
+        <v>5323</v>
       </c>
       <c r="C2612" s="0" t="s">
-        <v>5323</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="2613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2613" s="0" t="s">
-        <v>5324</v>
+        <v>5325</v>
       </c>
       <c r="B2613" s="0" t="s">
         <v>1101</v>
       </c>
       <c r="C2613" s="0" t="s">
-        <v>5325</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="2614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2614" s="0" t="s">
-        <v>5326</v>
+        <v>5327</v>
       </c>
       <c r="B2614" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C2614" s="0" t="s">
-        <v>5327</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="2615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2615" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2615" s="0" t="s">
-        <v>5328</v>
+        <v>5329</v>
       </c>
       <c r="C2615" s="0" t="s">
         <v>2165</v>
       </c>
     </row>
     <row r="2616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2616" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2616" s="0" t="s">
         <v>116</v>
       </c>
@@ -44509,6 +44594,9 @@
       </c>
     </row>
     <row r="2617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2617" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2617" s="0" t="s">
         <v>1718</v>
       </c>
@@ -44517,94 +44605,130 @@
       </c>
     </row>
     <row r="2618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2618" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2618" s="0" t="s">
-        <v>5329</v>
+        <v>5330</v>
       </c>
       <c r="C2618" s="0" t="s">
         <v>3666</v>
       </c>
     </row>
     <row r="2619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2619" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2619" s="0" t="s">
         <v>1718</v>
       </c>
       <c r="C2619" s="0" t="s">
-        <v>5330</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="2620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2620" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2620" s="0" t="s">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="C2620" s="0" t="s">
-        <v>5332</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="2621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2621" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2621" s="0" t="s">
-        <v>5333</v>
+        <v>5334</v>
       </c>
       <c r="C2621" s="0" t="s">
         <v>1814</v>
       </c>
     </row>
     <row r="2622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2622" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2622" s="0" t="s">
-        <v>5334</v>
+        <v>5335</v>
       </c>
       <c r="C2622" s="0" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="2623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2623" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2623" s="0" t="s">
-        <v>5335</v>
+        <v>5336</v>
       </c>
       <c r="C2623" s="0" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="2624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2624" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2624" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2624" s="0" t="s">
-        <v>5336</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="2625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2625" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2625" s="0" t="s">
-        <v>5337</v>
+        <v>5338</v>
       </c>
       <c r="C2625" s="0" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="2626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2626" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2626" s="0" t="s">
-        <v>5338</v>
+        <v>5339</v>
       </c>
       <c r="C2626" s="0" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="2627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2627" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2627" s="0" t="s">
-        <v>5339</v>
+        <v>5340</v>
       </c>
       <c r="C2627" s="0" t="s">
-        <v>5340</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="2628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2628" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2628" s="0" t="s">
         <v>623</v>
       </c>
       <c r="C2628" s="0" t="s">
-        <v>5331</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="2629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2629" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2629" s="0" t="s">
         <v>122</v>
       </c>
@@ -44613,16 +44737,19 @@
       </c>
     </row>
     <row r="2630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2630" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2630" s="0" t="s">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="C2630" s="0" t="s">
-        <v>5342</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="2631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2631" s="0" t="s">
-        <v>5343</v>
+        <v>5344</v>
       </c>
       <c r="B2631" s="0" t="s">
         <v>1536</v>
@@ -44633,13 +44760,13 @@
     </row>
     <row r="2632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2632" s="0" t="s">
-        <v>5344</v>
+        <v>5345</v>
       </c>
       <c r="B2632" s="0" t="s">
         <v>3870</v>
       </c>
       <c r="C2632" s="0" t="s">
-        <v>5345</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="2633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44647,7 +44774,7 @@
         <v>2062</v>
       </c>
       <c r="B2633" s="0" t="s">
-        <v>5346</v>
+        <v>5347</v>
       </c>
       <c r="C2633" s="0" t="s">
         <v>40</v>
@@ -44666,7 +44793,7 @@
     </row>
     <row r="2635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2635" s="0" t="s">
-        <v>5347</v>
+        <v>5348</v>
       </c>
       <c r="B2635" s="0" t="s">
         <v>4530</v>
@@ -44677,10 +44804,10 @@
     </row>
     <row r="2636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2636" s="0" t="s">
-        <v>5348</v>
+        <v>5349</v>
       </c>
       <c r="B2636" s="0" t="s">
-        <v>5349</v>
+        <v>5350</v>
       </c>
       <c r="C2636" s="0" t="s">
         <v>1044</v>
@@ -44688,7 +44815,7 @@
     </row>
     <row r="2637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2637" s="0" t="s">
-        <v>5350</v>
+        <v>5351</v>
       </c>
       <c r="B2637" s="0" t="s">
         <v>977</v>
@@ -44699,10 +44826,10 @@
     </row>
     <row r="2638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2638" s="0" t="s">
-        <v>5351</v>
+        <v>5352</v>
       </c>
       <c r="B2638" s="0" t="s">
-        <v>5352</v>
+        <v>5353</v>
       </c>
       <c r="C2638" s="0" t="s">
         <v>4225</v>
@@ -44716,34 +44843,34 @@
         <v>40</v>
       </c>
       <c r="C2639" s="0" t="s">
-        <v>5353</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="2640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2640" s="0" t="s">
-        <v>5354</v>
+        <v>5355</v>
       </c>
       <c r="B2640" s="0" t="s">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="C2640" s="0" t="s">
-        <v>5356</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="2641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2641" s="0" t="s">
-        <v>5357</v>
+        <v>5358</v>
       </c>
       <c r="B2641" s="0" t="s">
-        <v>5358</v>
+        <v>5359</v>
       </c>
       <c r="C2641" s="0" t="s">
-        <v>5359</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="2642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2642" s="0" t="s">
-        <v>5360</v>
+        <v>5361</v>
       </c>
       <c r="B2642" s="0" t="s">
         <v>1918</v>
@@ -44754,7 +44881,7 @@
     </row>
     <row r="2643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2643" s="0" t="s">
-        <v>5361</v>
+        <v>5362</v>
       </c>
       <c r="B2643" s="0" t="s">
         <v>977</v>
@@ -44765,27 +44892,30 @@
     </row>
     <row r="2644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2644" s="0" t="s">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="B2644" s="0" t="s">
         <v>2069</v>
       </c>
       <c r="C2644" s="0" t="s">
-        <v>5363</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="2645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2645" s="0" t="s">
-        <v>5364</v>
+        <v>5365</v>
       </c>
       <c r="B2645" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2645" s="0" t="s">
-        <v>5365</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="2646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2646" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2646" s="0" t="s">
         <v>30</v>
       </c>
@@ -44795,18 +44925,18 @@
     </row>
     <row r="2647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2647" s="0" t="s">
-        <v>5366</v>
+        <v>5367</v>
       </c>
       <c r="B2647" s="0" t="s">
-        <v>5367</v>
+        <v>5368</v>
       </c>
       <c r="C2647" s="0" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2648" s="0" t="s">
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="B2648" s="0" t="s">
         <v>839</v>
@@ -44816,6 +44946,9 @@
       </c>
     </row>
     <row r="2649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2649" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2649" s="0" t="s">
         <v>40</v>
       </c>
@@ -44824,100 +44957,130 @@
       </c>
     </row>
     <row r="2650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2650" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2650" s="0" t="s">
-        <v>5369</v>
+        <v>5370</v>
       </c>
       <c r="C2650" s="0" t="s">
-        <v>4871</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="2651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2651" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2651" s="0" t="s">
-        <v>5370</v>
+        <v>5371</v>
       </c>
       <c r="C2651" s="0" t="s">
-        <v>5371</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="2652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2652" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2652" s="0" t="s">
         <v>3989</v>
       </c>
       <c r="C2652" s="0" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="2653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2653" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2653" s="0" t="s">
-        <v>5372</v>
+        <v>5373</v>
       </c>
       <c r="C2653" s="0" t="s">
-        <v>5373</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="2654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2654" s="0" t="s">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="B2654" s="0" t="s">
-        <v>5375</v>
+        <v>5376</v>
       </c>
       <c r="C2654" s="0" t="s">
-        <v>5376</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="2655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2655" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2655" s="0" t="s">
-        <v>5377</v>
+        <v>5378</v>
       </c>
       <c r="C2655" s="0" t="s">
-        <v>5378</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="2656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2656" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2656" s="0" t="s">
         <v>1877</v>
       </c>
       <c r="C2656" s="0" t="s">
-        <v>5379</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="2657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2657" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2657" s="0" t="s">
-        <v>5380</v>
+        <v>5381</v>
       </c>
       <c r="C2657" s="0" t="s">
-        <v>5381</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="2658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2658" s="0" t="s">
-        <v>5382</v>
+        <v>5383</v>
       </c>
       <c r="B2658" s="0" t="s">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="C2658" s="0" t="s">
         <v>1827</v>
       </c>
     </row>
     <row r="2659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2659" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2659" s="0" t="s">
         <v>2044</v>
       </c>
       <c r="C2659" s="0" t="s">
-        <v>5384</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="2660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2660" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2660" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2660" s="0" t="s">
-        <v>5385</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="2661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2661" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2661" s="0" t="s">
         <v>3877</v>
       </c>
@@ -44926,6 +45089,9 @@
       </c>
     </row>
     <row r="2662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2662" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2662" s="0" t="s">
         <v>823</v>
       </c>
@@ -44935,97 +45101,118 @@
     </row>
     <row r="2663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2663" s="0" t="s">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="B2663" s="0" t="s">
-        <v>5387</v>
+        <v>5388</v>
       </c>
       <c r="C2663" s="0" t="s">
-        <v>5388</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="2664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2664" s="0" t="s">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="B2664" s="0" t="s">
+        <v>5390</v>
+      </c>
+      <c r="C2664" s="0" t="s">
         <v>5389</v>
-      </c>
-      <c r="C2664" s="0" t="s">
-        <v>5388</v>
       </c>
     </row>
     <row r="2665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2665" s="0" t="s">
-        <v>5390</v>
+        <v>5391</v>
       </c>
       <c r="B2665" s="0" t="s">
         <v>4439</v>
       </c>
       <c r="C2665" s="0" t="s">
-        <v>5391</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="2666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2666" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2666" s="0" t="s">
-        <v>5392</v>
+        <v>5393</v>
       </c>
       <c r="C2666" s="0" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="2667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2667" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2667" s="0" t="s">
-        <v>5393</v>
+        <v>5394</v>
       </c>
       <c r="C2667" s="0" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="2668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2668" s="0" t="s">
-        <v>5394</v>
+        <v>5395</v>
       </c>
       <c r="B2668" s="0" t="s">
-        <v>5395</v>
+        <v>5396</v>
       </c>
       <c r="C2668" s="0" t="s">
         <v>4333</v>
       </c>
     </row>
     <row r="2669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2669" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2669" s="0" t="s">
-        <v>5396</v>
+        <v>5397</v>
       </c>
       <c r="C2669" s="0" t="s">
-        <v>5397</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="2670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2670" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2670" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2670" s="0" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="2671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2671" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2671" s="0" t="s">
-        <v>5398</v>
+        <v>5399</v>
       </c>
       <c r="C2671" s="0" t="s">
-        <v>5399</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="2672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2672" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2672" s="0" t="s">
-        <v>5400</v>
+        <v>5401</v>
       </c>
       <c r="C2672" s="0" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2673" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2673" s="0" t="s">
         <v>2061</v>
       </c>
@@ -45035,59 +45222,62 @@
     </row>
     <row r="2674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2674" s="0" t="s">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="B2674" s="0" t="s">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="C2674" s="0" t="s">
-        <v>5403</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="2675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2675" s="0" t="s">
-        <v>5404</v>
+        <v>5405</v>
       </c>
       <c r="B2675" s="0" t="s">
         <v>1814</v>
       </c>
       <c r="C2675" s="0" t="s">
-        <v>5403</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="2676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2676" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2676" s="0" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
       <c r="C2676" s="0" t="s">
-        <v>5405</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="2677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2677" s="0" t="s">
-        <v>5406</v>
+        <v>5407</v>
       </c>
       <c r="B2677" s="0" t="s">
-        <v>5407</v>
+        <v>5408</v>
       </c>
       <c r="C2677" s="0" t="s">
-        <v>5408</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="2678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2678" s="0" t="s">
-        <v>5409</v>
+        <v>5410</v>
       </c>
       <c r="B2678" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2678" s="0" t="s">
-        <v>5410</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="2679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2679" s="0" t="s">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="B2679" s="0" t="s">
         <v>933</v>
@@ -45098,7 +45288,7 @@
     </row>
     <row r="2680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2680" s="0" t="s">
-        <v>5412</v>
+        <v>5413</v>
       </c>
       <c r="B2680" s="0" t="s">
         <v>8</v>
@@ -45108,11 +45298,14 @@
       </c>
     </row>
     <row r="2681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2681" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2681" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C2681" s="0" t="s">
-        <v>5413</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="2682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45120,7 +45313,7 @@
         <v>3335</v>
       </c>
       <c r="B2682" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
       <c r="C2682" s="0" t="s">
         <v>3574</v>
@@ -45128,26 +45321,29 @@
     </row>
     <row r="2683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2683" s="0" t="s">
-        <v>5414</v>
+        <v>5415</v>
       </c>
       <c r="B2683" s="0" t="s">
-        <v>5415</v>
+        <v>5416</v>
       </c>
       <c r="C2683" s="0" t="s">
-        <v>5416</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="2684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2684" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2684" s="0" t="s">
-        <v>5417</v>
+        <v>5418</v>
       </c>
       <c r="C2684" s="0" t="s">
-        <v>5418</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="2685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2685" s="0" t="s">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="B2685" s="0" t="s">
         <v>887</v>
@@ -45158,21 +45354,21 @@
     </row>
     <row r="2686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2686" s="0" t="s">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="B2686" s="0" t="s">
         <v>1041</v>
       </c>
       <c r="C2686" s="0" t="s">
-        <v>5421</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="2687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2687" s="0" t="s">
-        <v>5422</v>
+        <v>5423</v>
       </c>
       <c r="B2687" s="0" t="s">
-        <v>5423</v>
+        <v>5424</v>
       </c>
       <c r="C2687" s="0" t="s">
         <v>1542</v>
@@ -45180,7 +45376,7 @@
     </row>
     <row r="2688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2688" s="0" t="s">
-        <v>5424</v>
+        <v>5425</v>
       </c>
       <c r="B2688" s="0" t="s">
         <v>1102</v>
@@ -45190,11 +45386,14 @@
       </c>
     </row>
     <row r="2689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2689" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2689" s="0" t="s">
-        <v>5425</v>
+        <v>5426</v>
       </c>
       <c r="C2689" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45210,10 +45409,10 @@
     </row>
     <row r="2691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2691" s="0" t="s">
-        <v>5426</v>
+        <v>5427</v>
       </c>
       <c r="B2691" s="0" t="s">
-        <v>5427</v>
+        <v>5428</v>
       </c>
       <c r="C2691" s="0" t="s">
         <v>1885</v>
@@ -45221,7 +45420,7 @@
     </row>
     <row r="2692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2692" s="0" t="s">
-        <v>5428</v>
+        <v>5429</v>
       </c>
       <c r="B2692" s="0" t="s">
         <v>805</v>
@@ -45232,7 +45431,7 @@
     </row>
     <row r="2693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2693" s="0" t="s">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="B2693" s="0" t="s">
         <v>16</v>
@@ -45243,27 +45442,30 @@
     </row>
     <row r="2694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2694" s="0" t="s">
-        <v>5430</v>
+        <v>5431</v>
       </c>
       <c r="B2694" s="0" t="s">
-        <v>5431</v>
+        <v>5432</v>
       </c>
       <c r="C2694" s="0" t="s">
-        <v>5432</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="2695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2695" s="0" t="s">
-        <v>5433</v>
+        <v>5434</v>
       </c>
       <c r="B2695" s="0" t="s">
         <v>2135</v>
       </c>
       <c r="C2695" s="0" t="s">
-        <v>5434</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="2696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2696" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2696" s="0" t="s">
         <v>823</v>
       </c>
@@ -45273,10 +45475,10 @@
     </row>
     <row r="2697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2697" s="0" t="s">
-        <v>5435</v>
+        <v>5436</v>
       </c>
       <c r="B2697" s="0" t="s">
-        <v>5436</v>
+        <v>5437</v>
       </c>
       <c r="C2697" s="0" t="s">
         <v>813</v>
@@ -45284,16 +45486,19 @@
     </row>
     <row r="2698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2698" s="0" t="s">
-        <v>5437</v>
+        <v>5438</v>
       </c>
       <c r="B2698" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C2698" s="0" t="s">
-        <v>5438</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="2699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2699" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2699" s="0" t="s">
         <v>813</v>
       </c>
@@ -45303,21 +45508,21 @@
     </row>
     <row r="2700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2700" s="0" t="s">
-        <v>5439</v>
+        <v>5440</v>
       </c>
       <c r="B2700" s="0" t="s">
         <v>805</v>
       </c>
       <c r="C2700" s="0" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2701" s="0" t="s">
-        <v>5440</v>
+        <v>5441</v>
       </c>
       <c r="B2701" s="0" t="s">
-        <v>5431</v>
+        <v>5432</v>
       </c>
       <c r="C2701" s="0" t="s">
         <v>116</v>
@@ -45333,7 +45538,7 @@
     </row>
     <row r="2703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2703" s="0" t="s">
-        <v>5441</v>
+        <v>5442</v>
       </c>
       <c r="B2703" s="0" t="s">
         <v>116</v>
@@ -45344,7 +45549,7 @@
     </row>
     <row r="2704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2704" s="0" t="s">
-        <v>5442</v>
+        <v>5443</v>
       </c>
       <c r="B2704" s="0" t="s">
         <v>2168</v>
@@ -45355,16 +45560,19 @@
     </row>
     <row r="2705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2705" s="0" t="s">
-        <v>5443</v>
+        <v>5444</v>
       </c>
       <c r="B2705" s="0" t="s">
-        <v>5444</v>
+        <v>5445</v>
       </c>
       <c r="C2705" s="0" t="s">
-        <v>5445</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="2706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2706" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2706" s="0" t="s">
         <v>805</v>
       </c>
@@ -45374,16 +45582,19 @@
     </row>
     <row r="2707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2707" s="0" t="s">
-        <v>5446</v>
+        <v>5447</v>
       </c>
       <c r="B2707" s="0" t="s">
-        <v>5447</v>
+        <v>5448</v>
       </c>
       <c r="C2707" s="0" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="2708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2708" s="0" t="s">
+        <v>4572</v>
+      </c>
       <c r="B2708" s="0" t="s">
         <v>823</v>
       </c>
@@ -45393,10 +45604,10 @@
     </row>
     <row r="2709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2709" s="0" t="s">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="B2709" s="0" t="s">
-        <v>5449</v>
+        <v>5450</v>
       </c>
       <c r="C2709" s="0" t="s">
         <v>1062</v>
@@ -45431,21 +45642,21 @@
     </row>
     <row r="2713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2713" s="0" t="s">
-        <v>5437</v>
+        <v>5438</v>
       </c>
       <c r="B2713" s="0" t="s">
-        <v>5450</v>
+        <v>5451</v>
       </c>
       <c r="C2713" s="0" t="s">
-        <v>5451</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="2714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2714" s="0" t="s">
-        <v>5452</v>
+        <v>5453</v>
       </c>
       <c r="B2714" s="0" t="s">
-        <v>5453</v>
+        <v>5454</v>
       </c>
       <c r="C2714" s="0" t="s">
         <v>998</v>
@@ -45453,7 +45664,7 @@
     </row>
     <row r="2715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2715" s="0" t="s">
-        <v>5454</v>
+        <v>5455</v>
       </c>
       <c r="B2715" s="0" t="s">
         <v>3568</v>
@@ -45464,7 +45675,7 @@
     </row>
     <row r="2716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2716" s="0" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="B2716" s="0" t="s">
         <v>1289</v>
@@ -45475,18 +45686,18 @@
     </row>
     <row r="2717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2717" s="0" t="s">
-        <v>5455</v>
+        <v>5456</v>
       </c>
       <c r="B2717" s="0" t="s">
         <v>4296</v>
       </c>
       <c r="C2717" s="0" t="s">
-        <v>5456</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="2718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2718" s="0" t="s">
-        <v>5457</v>
+        <v>5458</v>
       </c>
       <c r="C2718" s="0" t="s">
         <v>8</v>
@@ -45494,7 +45705,7 @@
     </row>
     <row r="2719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2719" s="0" t="s">
-        <v>5458</v>
+        <v>5459</v>
       </c>
       <c r="C2719" s="0" t="s">
         <v>981</v>
@@ -45510,7 +45721,7 @@
     </row>
     <row r="2721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2721" s="0" t="s">
-        <v>5459</v>
+        <v>5460</v>
       </c>
       <c r="B2721" s="0" t="s">
         <v>805</v>
@@ -45521,7 +45732,7 @@
     </row>
     <row r="2722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2722" s="0" t="s">
-        <v>5460</v>
+        <v>5461</v>
       </c>
       <c r="B2722" s="0" t="s">
         <v>1766</v>
@@ -45532,10 +45743,10 @@
     </row>
     <row r="2723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2723" s="0" t="s">
-        <v>5461</v>
+        <v>5462</v>
       </c>
       <c r="B2723" s="0" t="s">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="C2723" s="0" t="s">
         <v>1758</v>
@@ -45543,32 +45754,35 @@
     </row>
     <row r="2724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2724" s="0" t="s">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="B2724" s="0" t="s">
         <v>4079</v>
       </c>
       <c r="C2724" s="0" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="2725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2725" s="0" t="s">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="B2725" s="0" t="s">
+        <v>5466</v>
+      </c>
+      <c r="C2725" s="0" t="s">
         <v>5465</v>
       </c>
-      <c r="C2725" s="0" t="s">
-        <v>5464</v>
-      </c>
     </row>
     <row r="2726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2726" s="0" t="s">
+        <v>5462</v>
+      </c>
       <c r="B2726" s="0" t="s">
-        <v>5466</v>
+        <v>5467</v>
       </c>
       <c r="C2726" s="0" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="2727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45581,7 +45795,7 @@
     </row>
     <row r="2728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2728" s="0" t="s">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="C2728" s="0" t="s">
         <v>823</v>
@@ -45600,7 +45814,7 @@
     </row>
     <row r="2730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2730" s="0" t="s">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="B2730" s="0" t="s">
         <v>1053</v>
@@ -45611,7 +45825,7 @@
     </row>
     <row r="2731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2731" s="0" t="s">
-        <v>5469</v>
+        <v>5470</v>
       </c>
       <c r="B2731" s="0" t="s">
         <v>1058</v>
@@ -45622,7 +45836,7 @@
     </row>
     <row r="2732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2732" s="0" t="s">
-        <v>5470</v>
+        <v>5471</v>
       </c>
       <c r="B2732" s="0" t="s">
         <v>1375</v>
@@ -45633,7 +45847,7 @@
     </row>
     <row r="2733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2733" s="0" t="s">
-        <v>5471</v>
+        <v>5472</v>
       </c>
       <c r="C2733" s="0" t="s">
         <v>2184</v>
@@ -45641,7 +45855,7 @@
     </row>
     <row r="2734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2734" s="0" t="s">
-        <v>5472</v>
+        <v>5473</v>
       </c>
       <c r="C2734" s="0" t="s">
         <v>998</v>
@@ -45649,15 +45863,15 @@
     </row>
     <row r="2735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2735" s="0" t="s">
-        <v>5473</v>
+        <v>5474</v>
       </c>
       <c r="C2735" s="0" t="s">
-        <v>5416</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="2736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2736" s="0" t="s">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="B2736" s="0" t="s">
         <v>3692</v>
@@ -45668,26 +45882,26 @@
     </row>
     <row r="2737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2737" s="0" t="s">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="C2737" s="0" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2738" s="0" t="s">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="B2738" s="0" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="C2738" s="0" t="s">
-        <v>5478</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="2739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2739" s="0" t="s">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="B2739" s="0" t="s">
         <v>1129</v>
@@ -45698,10 +45912,10 @@
     </row>
     <row r="2740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2740" s="0" t="s">
-        <v>5480</v>
+        <v>5481</v>
       </c>
       <c r="B2740" s="0" t="s">
-        <v>5481</v>
+        <v>5482</v>
       </c>
       <c r="C2740" s="0" t="s">
         <v>1178</v>
@@ -45712,7 +45926,7 @@
         <v>3053</v>
       </c>
       <c r="B2741" s="0" t="s">
-        <v>5482</v>
+        <v>5483</v>
       </c>
       <c r="C2741" s="0" t="s">
         <v>4043</v>
@@ -45720,10 +45934,10 @@
     </row>
     <row r="2742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2742" s="0" t="s">
-        <v>5483</v>
+        <v>5484</v>
       </c>
       <c r="B2742" s="0" t="s">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="C2742" s="0" t="s">
         <v>4517</v>
@@ -45731,13 +45945,13 @@
     </row>
     <row r="2743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2743" s="0" t="s">
-        <v>5485</v>
+        <v>5486</v>
       </c>
       <c r="B2743" s="0" t="s">
-        <v>5486</v>
+        <v>5487</v>
       </c>
       <c r="C2743" s="0" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
     </row>
   </sheetData>
